--- a/Data/mensuales_2005.xlsx
+++ b/Data/mensuales_2005.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\leyva_research\data\clean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Coronel\Documents\GitHub\Informality\Informality-InterestRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646ED14-1D79-4041-8275-22EFC4C41214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26887A84-9C65-441A-9A22-18342D135BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="igae" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11349,4 +11350,1259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486A4115-5C47-49CE-BDD4-54EABA0F11D7}">
+  <dimension ref="A1:A248"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A248"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>74.599199260000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>73.878798399999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>76.063421610000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>79.215658289999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>79.088214960000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>78.087974639999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>76.10832619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>78.495941869999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>79.097560540000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>78.9685147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>80.250749880000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>81.090409159999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>79.264682640000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>76.806691430000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>82.035547870000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>79.666903430000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>84.410931550000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>83.279664449999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>80.640959300000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>82.410437830000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>82.162539649999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>83.526198500000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>82.727404649999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>82.525566409999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>80.898321989999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>78.349341710000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>83.830294409999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>81.968037120000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>85.634108479999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>84.987967019999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>83.28156946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>84.276007669999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>83.266925790000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>86.593980040000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>84.785025570000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>83.550798979999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>82.477617800000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>81.216819360000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>80.733070850000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>86.804123599999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>85.475304850000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>85.477209599999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>85.630971220000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>83.082533530000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>84.120378720000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>86.631648830000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>82.90397471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>83.155772889999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>76.019281320000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>73.650563399999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>78.418479869999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>76.256850119999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>76.803582109999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>79.0898787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>80.181038259999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>78.071588129999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>80.063889369999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>82.344494800000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>82.196433200000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>83.291762360000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>77.817791549999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>77.042083579999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>83.847590780000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>82.217903939999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>82.731904810000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>84.096843550000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>83.780237709999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>82.859897309999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>83.531292260000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>84.516498319999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>86.268243490000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>86.361908659999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>81.059540339999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>80.115614910000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>87.173673949999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>82.957170329999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>86.038631760000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>86.875162950000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>86.13093963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>87.289965519999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>86.72954498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>87.547271219999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>90.786459870000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>89.206822369999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85.357613130000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85.29676474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>90.120110920000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86.670871259999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>90.125978050000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89.788374180000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89.914964080000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89.448408839999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>87.314056930000007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91.364216679999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93.410554550000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>90.418160290000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>87.662036689999994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>85.139134170000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>87.348826209999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>90.458044209999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>91.668921949999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>89.262238879999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>91.106923780000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>90.191413749999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>88.218546309999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>92.824761170000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>93.048242680000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>92.094950119999993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>88.055324069999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>86.924389059999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>91.5130841</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>90.606821479999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>93.771730520000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>92.240837290000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>94.151086210000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>91.269250069999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>91.305022399999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>95.618832459999993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>94.901718700000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>95.498429060000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>90.618371109999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>89.267738899999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>94.331544030000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>92.929381219999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>94.018454070000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>95.598732929999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>96.244188350000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>93.906885729999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>95.487848880000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>97.291793659999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>96.719774830000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>97.507989539999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>91.735198400000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>92.725299969999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>94.12728663</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>95.749489069999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>96.000073279999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>97.383327910000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>95.394388800000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>96.882038440000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>95.737173859999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>97.662672929999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>100.8495479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>99.785649710000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>95.147366360000007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>93.328218930000006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>99.882290870000006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>94.250997049999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>99.160614960000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>99.894681919999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>96.514010519999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>99.228383050000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>95.757490050000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>99.456422669999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>102.7989129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>100.8242681</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>97.405778429999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>95.31874406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>98.983697199999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>98.914845880000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>102.01269019999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>101.2455547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>100.1458282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>101.6059137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>97.997737069999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>102.342451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>104.005861</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>100.0208985</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>98.524256089999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>95.935784810000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>99.929700229999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>97.675377659999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>101.335551</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>99.865780599999994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>100.50898220000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>100.1350903</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>97.492751490000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>100.5418099</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>102.89567599999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>99.932798550000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>98.307619590000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>95.260539870000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>96.924136149999995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>76.331843550000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>76.902621280000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>86.481755949999993</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>90.455676460000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>91.530853609999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>92.965649170000006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>96.354414739999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>99.30002082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>97.983792350000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>93.116500990000006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>90.871561580000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>99.805282770000005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>96.192515200000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>98.210886619999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>98.426231799999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>97.305042950000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>96.061985230000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>93.725014079999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>96.268350359999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>101.0921203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>99.660091910000006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>94.778015420000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>93.60604051</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>101.5991274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>98.486247759999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>101.6244854</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>100.2489966</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>99.705243129999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>101.69300819999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>98.849024549999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>100.7847331</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>105.830264</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>103.9800908</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>99.314216849999994</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>97.068151020000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>104.0894071</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>100.2275247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>105.8357975</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>104.05303189999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>102.7440819</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>105.01967620000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>102.5715673</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>105.2782546</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>107.6575306</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>104.4711107</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>101.6386176</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>101.287347</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>102.65653020000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>105.6209837</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>107.3716744</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>103.4452629</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>106.72704899999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>105.439144</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>102.4282202</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>105.9889515</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>107.91102739999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>103.7932184</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>101.2288155</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>100.3519429</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>105.3479373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>103.9497561</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>107.4067778</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>104.5374533</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>105.74108080000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>104.89289789999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/mensuales_2005.xlsx
+++ b/Data/mensuales_2005.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Coronel\Documents\GitHub\Informality\Informality-InterestRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26887A84-9C65-441A-9A22-18342D135BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96431E9E-2661-4A6E-85D9-6925F115580F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="igae" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>igae</t>
   </si>
@@ -65,6 +64,18 @@
   </si>
   <si>
     <t>crb_index</t>
+  </si>
+  <si>
+    <t>TOSI</t>
+  </si>
+  <si>
+    <t>TIL1</t>
+  </si>
+  <si>
+    <t>empleo_pea</t>
+  </si>
+  <si>
+    <t>deesocupada_pea</t>
   </si>
 </sst>
 </file>
@@ -383,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N249"/>
+  <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B249"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="O258" sqref="O258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +405,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +445,20 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>38353</v>
       </c>
@@ -478,8 +501,20 @@
       <c r="N2">
         <v>59.89</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>95.939982089699996</v>
+      </c>
+      <c r="P2">
+        <v>4.0600179103</v>
+      </c>
+      <c r="Q2">
+        <v>27.083707595100002</v>
+      </c>
+      <c r="R2">
+        <v>58.886044413400001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>38384</v>
       </c>
@@ -522,8 +557,20 @@
       <c r="N3">
         <v>61.28</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>96.178541077099993</v>
+      </c>
+      <c r="P3">
+        <v>3.8214589229000002</v>
+      </c>
+      <c r="Q3">
+        <v>27.518415926999999</v>
+      </c>
+      <c r="R3">
+        <v>59.049946941100004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38412</v>
       </c>
@@ -566,8 +613,20 @@
       <c r="N4">
         <v>68.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>96.315783815499998</v>
+      </c>
+      <c r="P4">
+        <v>3.6842161844999999</v>
+      </c>
+      <c r="Q4">
+        <v>28.0520502617</v>
+      </c>
+      <c r="R4">
+        <v>59.327841491999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>38443</v>
       </c>
@@ -610,8 +669,20 @@
       <c r="N5">
         <v>67.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>96.558479475400006</v>
+      </c>
+      <c r="P5">
+        <v>3.4415205246</v>
+      </c>
+      <c r="Q5">
+        <v>27.822879046200001</v>
+      </c>
+      <c r="R5">
+        <v>58.884125956799998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>38473</v>
       </c>
@@ -654,8 +725,20 @@
       <c r="N6">
         <v>64.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>96.660700101000003</v>
+      </c>
+      <c r="P6">
+        <v>3.3392998989999998</v>
+      </c>
+      <c r="Q6">
+        <v>26.594309372800002</v>
+      </c>
+      <c r="R6">
+        <v>59.367680176699999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>38504</v>
       </c>
@@ -698,8 +781,20 @@
       <c r="N7">
         <v>68.819999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>96.413721412499996</v>
+      </c>
+      <c r="P7">
+        <v>3.5862785874999998</v>
+      </c>
+      <c r="Q7">
+        <v>27.338321155700001</v>
+      </c>
+      <c r="R7">
+        <v>59.056349608300003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>38534</v>
       </c>
@@ -742,8 +837,20 @@
       <c r="N8">
         <v>71.69</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>95.971002936000005</v>
+      </c>
+      <c r="P8">
+        <v>4.0289970640000003</v>
+      </c>
+      <c r="Q8">
+        <v>27.193863578999999</v>
+      </c>
+      <c r="R8">
+        <v>59.914146958099998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>38565</v>
       </c>
@@ -786,8 +893,20 @@
       <c r="N9">
         <v>78.150000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>96.318653115199993</v>
+      </c>
+      <c r="P9">
+        <v>3.6813468847999999</v>
+      </c>
+      <c r="Q9">
+        <v>26.1938532446</v>
+      </c>
+      <c r="R9">
+        <v>59.519800935100001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>38596</v>
       </c>
@@ -830,8 +949,20 @@
       <c r="N10">
         <v>80.260000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>96.310393337899995</v>
+      </c>
+      <c r="P10">
+        <v>3.6896066621000001</v>
+      </c>
+      <c r="Q10">
+        <v>27.285182552599998</v>
+      </c>
+      <c r="R10">
+        <v>59.122843087100001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>38626</v>
       </c>
@@ -874,8 +1005,20 @@
       <c r="N11">
         <v>78.19</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>96.617292817700005</v>
+      </c>
+      <c r="P11">
+        <v>3.3827071822999999</v>
+      </c>
+      <c r="Q11">
+        <v>28.228628565099999</v>
+      </c>
+      <c r="R11">
+        <v>59.723426562500002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>38657</v>
       </c>
@@ -918,8 +1061,20 @@
       <c r="N12">
         <v>73.489999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>97.112079090700007</v>
+      </c>
+      <c r="P12">
+        <v>2.8879209093</v>
+      </c>
+      <c r="Q12">
+        <v>26.8995392008</v>
+      </c>
+      <c r="R12">
+        <v>59.764247565200002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>38687</v>
       </c>
@@ -962,8 +1117,20 @@
       <c r="N13">
         <v>77.239999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>97.302123487200006</v>
+      </c>
+      <c r="P13">
+        <v>2.6978765128000002</v>
+      </c>
+      <c r="Q13">
+        <v>28.245953611600001</v>
+      </c>
+      <c r="R13">
+        <v>59.171511844699999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>38718</v>
       </c>
@@ -1006,8 +1173,20 @@
       <c r="N14">
         <v>79.569999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>96.487325026899995</v>
+      </c>
+      <c r="P14">
+        <v>3.5126749731000002</v>
+      </c>
+      <c r="Q14">
+        <v>27.4231029396</v>
+      </c>
+      <c r="R14">
+        <v>58.8388683879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>38749</v>
       </c>
@@ -1050,8 +1229,20 @@
       <c r="N15">
         <v>76.81</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>96.226973371300005</v>
+      </c>
+      <c r="P15">
+        <v>3.7730266286999998</v>
+      </c>
+      <c r="Q15">
+        <v>26.254039026299999</v>
+      </c>
+      <c r="R15">
+        <v>58.2093072037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>38777</v>
       </c>
@@ -1094,8 +1285,20 @@
       <c r="N16">
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>96.725913781200006</v>
+      </c>
+      <c r="P16">
+        <v>3.2740862187999999</v>
+      </c>
+      <c r="Q16">
+        <v>27.106362607000001</v>
+      </c>
+      <c r="R16">
+        <v>58.046637324099997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>38808</v>
       </c>
@@ -1138,8 +1341,20 @@
       <c r="N17">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>96.747509818300003</v>
+      </c>
+      <c r="P17">
+        <v>3.2524901816999998</v>
+      </c>
+      <c r="Q17">
+        <v>27.290095833900001</v>
+      </c>
+      <c r="R17">
+        <v>58.458050301299998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>38838</v>
       </c>
@@ -1182,8 +1397,20 @@
       <c r="N18">
         <v>86.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>97.073752628099996</v>
+      </c>
+      <c r="P18">
+        <v>2.9262473719000002</v>
+      </c>
+      <c r="Q18">
+        <v>25.686421535200001</v>
+      </c>
+      <c r="R18">
+        <v>58.6409363036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>38869</v>
       </c>
@@ -1226,8 +1453,20 @@
       <c r="N19">
         <v>83.92</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>96.682000791199997</v>
+      </c>
+      <c r="P19">
+        <v>3.3179992087999999</v>
+      </c>
+      <c r="Q19">
+        <v>26.5574770353</v>
+      </c>
+      <c r="R19">
+        <v>59.327611280500001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>38899</v>
       </c>
@@ -1270,8 +1509,20 @@
       <c r="N20">
         <v>88.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>95.948880495500006</v>
+      </c>
+      <c r="P20">
+        <v>4.0511195044999999</v>
+      </c>
+      <c r="Q20">
+        <v>26.172693591600002</v>
+      </c>
+      <c r="R20">
+        <v>58.142942310599999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>38930</v>
       </c>
@@ -1314,8 +1565,20 @@
       <c r="N21">
         <v>89.04</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>96.103329886500006</v>
+      </c>
+      <c r="P21">
+        <v>3.8966701134999999</v>
+      </c>
+      <c r="Q21">
+        <v>25.231184818300001</v>
+      </c>
+      <c r="R21">
+        <v>57.484772086200003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>38961</v>
       </c>
@@ -1358,8 +1621,20 @@
       <c r="N22">
         <v>79.23</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>96.085644059200007</v>
+      </c>
+      <c r="P22">
+        <v>3.9143559408000002</v>
+      </c>
+      <c r="Q22">
+        <v>26.273945240100002</v>
+      </c>
+      <c r="R22">
+        <v>57.795038672099999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>38991</v>
       </c>
@@ -1402,8 +1677,20 @@
       <c r="N23">
         <v>77.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>96.122388049500003</v>
+      </c>
+      <c r="P23">
+        <v>3.8776119505</v>
+      </c>
+      <c r="Q23">
+        <v>25.723167290900001</v>
+      </c>
+      <c r="R23">
+        <v>57.037292112300001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39022</v>
       </c>
@@ -1446,8 +1733,20 @@
       <c r="N24">
         <v>79.66</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>96.375375410900006</v>
+      </c>
+      <c r="P24">
+        <v>3.6246245891000002</v>
+      </c>
+      <c r="Q24">
+        <v>25.493362924500001</v>
+      </c>
+      <c r="R24">
+        <v>57.3068974607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39052</v>
       </c>
@@ -1490,8 +1789,20 @@
       <c r="N25">
         <v>82.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>96.636221938000006</v>
+      </c>
+      <c r="P25">
+        <v>3.3637780620000002</v>
+      </c>
+      <c r="Q25">
+        <v>26.170464321299999</v>
+      </c>
+      <c r="R25">
+        <v>57.900958542300003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39083</v>
       </c>
@@ -1534,8 +1845,20 @@
       <c r="N26">
         <v>75.94</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>95.996734958000005</v>
+      </c>
+      <c r="P26">
+        <v>4.0032650419999998</v>
+      </c>
+      <c r="Q26">
+        <v>25.523873139599999</v>
+      </c>
+      <c r="R26">
+        <v>56.507812640399997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>39114</v>
       </c>
@@ -1578,8 +1901,20 @@
       <c r="N27">
         <v>80.31</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>95.839902217399995</v>
+      </c>
+      <c r="P27">
+        <v>4.1600977826000003</v>
+      </c>
+      <c r="Q27">
+        <v>26.6869131833</v>
+      </c>
+      <c r="R27">
+        <v>57.655848679000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>39142</v>
       </c>
@@ -1622,8 +1957,20 @@
       <c r="N28">
         <v>83.34</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>96.208558132099995</v>
+      </c>
+      <c r="P28">
+        <v>3.7914418679000002</v>
+      </c>
+      <c r="Q28">
+        <v>27.037410728800001</v>
+      </c>
+      <c r="R28">
+        <v>57.286714364399998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39173</v>
       </c>
@@ -1666,8 +2013,20 @@
       <c r="N29">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>96.408627821500005</v>
+      </c>
+      <c r="P29">
+        <v>3.5913721784999999</v>
+      </c>
+      <c r="Q29">
+        <v>26.2405247889</v>
+      </c>
+      <c r="R29">
+        <v>56.684272844200002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39203</v>
       </c>
@@ -1710,8 +2069,20 @@
       <c r="N30">
         <v>89.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>96.834339264400001</v>
+      </c>
+      <c r="P30">
+        <v>3.1656607355999999</v>
+      </c>
+      <c r="Q30">
+        <v>26.894109067399999</v>
+      </c>
+      <c r="R30">
+        <v>57.9879252745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39234</v>
       </c>
@@ -1754,8 +2125,20 @@
       <c r="N31">
         <v>91.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>96.719918156800006</v>
+      </c>
+      <c r="P31">
+        <v>3.2800818432000001</v>
+      </c>
+      <c r="Q31">
+        <v>26.956766527799999</v>
+      </c>
+      <c r="R31">
+        <v>57.798958238099999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39264</v>
       </c>
@@ -1798,8 +2181,20 @@
       <c r="N32">
         <v>95.59</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>96.171334622800003</v>
+      </c>
+      <c r="P32">
+        <v>3.8286653772000001</v>
+      </c>
+      <c r="Q32">
+        <v>26.308340781999998</v>
+      </c>
+      <c r="R32">
+        <v>57.223143224600001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39295</v>
       </c>
@@ -1842,8 +2237,20 @@
       <c r="N33">
         <v>90.67</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>96.152500898499994</v>
+      </c>
+      <c r="P33">
+        <v>3.8474991015</v>
+      </c>
+      <c r="Q33">
+        <v>26.637344774900001</v>
+      </c>
+      <c r="R33">
+        <v>57.6876898732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>39326</v>
       </c>
@@ -1886,8 +2293,20 @@
       <c r="N34">
         <v>96.27</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>96.227316926100002</v>
+      </c>
+      <c r="P34">
+        <v>3.7726830739000001</v>
+      </c>
+      <c r="Q34">
+        <v>26.096080751799999</v>
+      </c>
+      <c r="R34">
+        <v>56.968709416899998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39356</v>
       </c>
@@ -1930,8 +2349,20 @@
       <c r="N35">
         <v>102.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>96.1464588889</v>
+      </c>
+      <c r="P35">
+        <v>3.8535411111000002</v>
+      </c>
+      <c r="Q35">
+        <v>26.7330939609</v>
+      </c>
+      <c r="R35">
+        <v>57.504543693400002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39387</v>
       </c>
@@ -1974,8 +2405,20 @@
       <c r="N36">
         <v>110.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>96.637596680300007</v>
+      </c>
+      <c r="P36">
+        <v>3.3624033196999998</v>
+      </c>
+      <c r="Q36">
+        <v>25.907130678600002</v>
+      </c>
+      <c r="R36">
+        <v>57.701359112399999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39417</v>
       </c>
@@ -2018,8 +2461,20 @@
       <c r="N37">
         <v>109.96</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>96.774039364499998</v>
+      </c>
+      <c r="P37">
+        <v>3.2259606354999999</v>
+      </c>
+      <c r="Q37">
+        <v>26.9737961121</v>
+      </c>
+      <c r="R37">
+        <v>57.0575639813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39448</v>
       </c>
@@ -2062,8 +2517,20 @@
       <c r="N38">
         <v>113.08</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>95.8522119971</v>
+      </c>
+      <c r="P38">
+        <v>4.1477880028999996</v>
+      </c>
+      <c r="Q38">
+        <v>26.5851137527</v>
+      </c>
+      <c r="R38">
+        <v>57.073054556999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39479</v>
       </c>
@@ -2106,8 +2573,20 @@
       <c r="N39">
         <v>119.59</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>96.113020364199997</v>
+      </c>
+      <c r="P39">
+        <v>3.8869796357999999</v>
+      </c>
+      <c r="Q39">
+        <v>26.914579556100001</v>
+      </c>
+      <c r="R39">
+        <v>57.560577930299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39508</v>
       </c>
@@ -2150,8 +2629,20 @@
       <c r="N40">
         <v>128.36000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>96.450656609500001</v>
+      </c>
+      <c r="P40">
+        <v>3.5493433904999998</v>
+      </c>
+      <c r="Q40">
+        <v>27.516715683800001</v>
+      </c>
+      <c r="R40">
+        <v>56.772905001600002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39539</v>
       </c>
@@ -2194,8 +2685,20 @@
       <c r="N41">
         <v>135.36000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>96.524238832899997</v>
+      </c>
+      <c r="P41">
+        <v>3.4757611670999999</v>
+      </c>
+      <c r="Q41">
+        <v>27.073969042200002</v>
+      </c>
+      <c r="R41">
+        <v>57.8481500651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39569</v>
       </c>
@@ -2238,8 +2741,20 @@
       <c r="N42">
         <v>146.57</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>96.7241781468</v>
+      </c>
+      <c r="P42">
+        <v>3.2758218532000001</v>
+      </c>
+      <c r="Q42">
+        <v>25.996239044700001</v>
+      </c>
+      <c r="R42">
+        <v>56.938618270200003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39600</v>
       </c>
@@ -2282,8 +2797,20 @@
       <c r="N43">
         <v>155.69</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>96.612411757000004</v>
+      </c>
+      <c r="P43">
+        <v>3.3875882430000002</v>
+      </c>
+      <c r="Q43">
+        <v>27.415464970599999</v>
+      </c>
+      <c r="R43">
+        <v>58.153475092699999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>39630</v>
       </c>
@@ -2326,8 +2853,20 @@
       <c r="N44">
         <v>156.22999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>95.831243650900007</v>
+      </c>
+      <c r="P44">
+        <v>4.1687563490999997</v>
+      </c>
+      <c r="Q44">
+        <v>27.217255371899999</v>
+      </c>
+      <c r="R44">
+        <v>57.576247648399999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>39661</v>
       </c>
@@ -2370,8 +2909,20 @@
       <c r="N45">
         <v>136.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>95.909457078100004</v>
+      </c>
+      <c r="P45">
+        <v>4.0905429219</v>
+      </c>
+      <c r="Q45">
+        <v>26.591666399600001</v>
+      </c>
+      <c r="R45">
+        <v>58.107944314500003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>39692</v>
       </c>
@@ -2414,8 +2965,20 @@
       <c r="N46">
         <v>122.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>95.849329864699996</v>
+      </c>
+      <c r="P46">
+        <v>4.1506701353000004</v>
+      </c>
+      <c r="Q46">
+        <v>26.195967171700001</v>
+      </c>
+      <c r="R46">
+        <v>56.6862835166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>39722</v>
       </c>
@@ -2458,8 +3021,20 @@
       <c r="N47">
         <v>96.46</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>95.837134177300001</v>
+      </c>
+      <c r="P47">
+        <v>4.1628658226999997</v>
+      </c>
+      <c r="Q47">
+        <v>27.4495840463</v>
+      </c>
+      <c r="R47">
+        <v>57.3975769185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>39753</v>
       </c>
@@ -2502,8 +3077,20 @@
       <c r="N48">
         <v>78.790000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>95.504086787600002</v>
+      </c>
+      <c r="P48">
+        <v>4.4959132123999996</v>
+      </c>
+      <c r="Q48">
+        <v>24.8954664615</v>
+      </c>
+      <c r="R48">
+        <v>58.039143140199997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>39783</v>
       </c>
@@ -2546,8 +3133,20 @@
       <c r="N49">
         <v>67.53</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>95.982762557300006</v>
+      </c>
+      <c r="P49">
+        <v>4.0172374426999999</v>
+      </c>
+      <c r="Q49">
+        <v>26.049330167600001</v>
+      </c>
+      <c r="R49">
+        <v>58.369389220800002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>39814</v>
       </c>
@@ -2590,8 +3189,20 @@
       <c r="N50">
         <v>69.98</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>95.064588338299998</v>
+      </c>
+      <c r="P50">
+        <v>4.9354116616999999</v>
+      </c>
+      <c r="Q50">
+        <v>27.770220712699999</v>
+      </c>
+      <c r="R50">
+        <v>58.689418080300001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>39845</v>
       </c>
@@ -2634,8 +3245,20 @@
       <c r="N51">
         <v>66.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>94.738738089199998</v>
+      </c>
+      <c r="P51">
+        <v>5.2612619108000001</v>
+      </c>
+      <c r="Q51">
+        <v>27.5611828471</v>
+      </c>
+      <c r="R51">
+        <v>58.990841436799997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>39873</v>
       </c>
@@ -2678,8 +3301,20 @@
       <c r="N52">
         <v>68.209999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>95.322322614900003</v>
+      </c>
+      <c r="P52">
+        <v>4.6776773851</v>
+      </c>
+      <c r="Q52">
+        <v>27.624224638000001</v>
+      </c>
+      <c r="R52">
+        <v>59.116528603799999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>39904</v>
       </c>
@@ -2722,8 +3357,20 @@
       <c r="N53">
         <v>70.680000000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>94.820038512400004</v>
+      </c>
+      <c r="P53">
+        <v>5.1799614876</v>
+      </c>
+      <c r="Q53">
+        <v>27.487292205199999</v>
+      </c>
+      <c r="R53">
+        <v>58.32015517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>39934</v>
       </c>
@@ -2766,8 +3413,20 @@
       <c r="N54">
         <v>77.08</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>94.746496818400004</v>
+      </c>
+      <c r="P54">
+        <v>5.2535031816000002</v>
+      </c>
+      <c r="Q54">
+        <v>27.130679586700001</v>
+      </c>
+      <c r="R54">
+        <v>59.743296739900003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>39965</v>
       </c>
@@ -2810,8 +3469,20 @@
       <c r="N55">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>94.8983967466</v>
+      </c>
+      <c r="P55">
+        <v>5.1016032534000004</v>
+      </c>
+      <c r="Q55">
+        <v>27.524143241800001</v>
+      </c>
+      <c r="R55">
+        <v>59.858374079000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>39995</v>
       </c>
@@ -2854,8 +3525,20 @@
       <c r="N56">
         <v>81.42</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>93.963351723100004</v>
+      </c>
+      <c r="P56">
+        <v>6.0366482769000003</v>
+      </c>
+      <c r="Q56">
+        <v>27.585031037299999</v>
+      </c>
+      <c r="R56">
+        <v>59.965082516599999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40026</v>
       </c>
@@ -2898,8 +3581,20 @@
       <c r="N57">
         <v>88.53</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>93.808234523799996</v>
+      </c>
+      <c r="P57">
+        <v>6.1917654761999996</v>
+      </c>
+      <c r="Q57">
+        <v>26.858912610499999</v>
+      </c>
+      <c r="R57">
+        <v>59.138056551200002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40057</v>
       </c>
@@ -2942,8 +3637,20 @@
       <c r="N58">
         <v>84.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>93.657981207299997</v>
+      </c>
+      <c r="P58">
+        <v>6.3420187927000002</v>
+      </c>
+      <c r="Q58">
+        <v>27.564911633299999</v>
+      </c>
+      <c r="R58">
+        <v>58.896401214299999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40087</v>
       </c>
@@ -2986,8 +3693,20 @@
       <c r="N59">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>94.131842109100006</v>
+      </c>
+      <c r="P59">
+        <v>5.8681578909000001</v>
+      </c>
+      <c r="Q59">
+        <v>27.2301014526</v>
+      </c>
+      <c r="R59">
+        <v>59.720505263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40118</v>
       </c>
@@ -3030,8 +3749,20 @@
       <c r="N60">
         <v>93.77</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>94.805905446599994</v>
+      </c>
+      <c r="P60">
+        <v>5.1940945534000003</v>
+      </c>
+      <c r="Q60">
+        <v>26.2523192367</v>
+      </c>
+      <c r="R60">
+        <v>58.964938574800001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40148</v>
       </c>
@@ -3074,8 +3805,20 @@
       <c r="N61">
         <v>94.62</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>95.295165926699994</v>
+      </c>
+      <c r="P61">
+        <v>4.7048340732999998</v>
+      </c>
+      <c r="Q61">
+        <v>27.393637113400001</v>
+      </c>
+      <c r="R61">
+        <v>59.2990866795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40179</v>
       </c>
@@ -3118,8 +3861,20 @@
       <c r="N62">
         <v>97.81</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>94.1680626606</v>
+      </c>
+      <c r="P62">
+        <v>5.8319373393999996</v>
+      </c>
+      <c r="Q62">
+        <v>29.0811942351</v>
+      </c>
+      <c r="R62">
+        <v>58.826949704500002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40210</v>
       </c>
@@ -3162,8 +3917,20 @@
       <c r="N63">
         <v>94.81</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>94.6274468955</v>
+      </c>
+      <c r="P63">
+        <v>5.3725531044999997</v>
+      </c>
+      <c r="Q63">
+        <v>27.3217956278</v>
+      </c>
+      <c r="R63">
+        <v>58.625930742800001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40238</v>
       </c>
@@ -3206,8 +3973,20 @@
       <c r="N64">
         <v>97.94</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>95.224214659099999</v>
+      </c>
+      <c r="P64">
+        <v>4.7757853408999997</v>
+      </c>
+      <c r="Q64">
+        <v>27.792253906700001</v>
+      </c>
+      <c r="R64">
+        <v>58.905889226200003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40269</v>
       </c>
@@ -3250,8 +4029,20 @@
       <c r="N65">
         <v>102.46</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>94.654961619000005</v>
+      </c>
+      <c r="P65">
+        <v>5.3450383810000002</v>
+      </c>
+      <c r="Q65">
+        <v>27.9079549906</v>
+      </c>
+      <c r="R65">
+        <v>59.788125968800003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40299</v>
       </c>
@@ -3294,8 +4085,20 @@
       <c r="N66">
         <v>94.78</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>94.990404062799996</v>
+      </c>
+      <c r="P66">
+        <v>5.0095959372000003</v>
+      </c>
+      <c r="Q66">
+        <v>27.708164185600001</v>
+      </c>
+      <c r="R66">
+        <v>59.5173345109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40330</v>
       </c>
@@ -3338,8 +4141,20 @@
       <c r="N67">
         <v>93.65</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>95.057184356600004</v>
+      </c>
+      <c r="P67">
+        <v>4.9428156434000003</v>
+      </c>
+      <c r="Q67">
+        <v>27.3468536705</v>
+      </c>
+      <c r="R67">
+        <v>59.0075379707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40360</v>
       </c>
@@ -3382,8 +4197,20 @@
       <c r="N68">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>94.336936663399996</v>
+      </c>
+      <c r="P68">
+        <v>5.6630633365999996</v>
+      </c>
+      <c r="Q68">
+        <v>26.6515790234</v>
+      </c>
+      <c r="R68">
+        <v>58.991740566600001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40391</v>
       </c>
@@ -3426,8 +4253,20 @@
       <c r="N69">
         <v>97.34</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>94.620635248300005</v>
+      </c>
+      <c r="P69">
+        <v>5.3793647516999998</v>
+      </c>
+      <c r="Q69">
+        <v>26.070112519799999</v>
+      </c>
+      <c r="R69">
+        <v>57.988513545899998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40422</v>
       </c>
@@ -3470,8 +4309,20 @@
       <c r="N70">
         <v>99.14</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>94.389785024800005</v>
+      </c>
+      <c r="P70">
+        <v>5.6102149751999999</v>
+      </c>
+      <c r="Q70">
+        <v>27.012265636999999</v>
+      </c>
+      <c r="R70">
+        <v>58.436062382999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>40452</v>
       </c>
@@ -3514,8 +4365,20 @@
       <c r="N71">
         <v>104.42</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>94.339421985499996</v>
+      </c>
+      <c r="P71">
+        <v>5.6605780145000004</v>
+      </c>
+      <c r="Q71">
+        <v>26.1704271109</v>
+      </c>
+      <c r="R71">
+        <v>59.762455964399997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>40483</v>
       </c>
@@ -3558,8 +4421,20 @@
       <c r="N72">
         <v>108.16</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>94.795938744400004</v>
+      </c>
+      <c r="P72">
+        <v>5.2040612556000001</v>
+      </c>
+      <c r="Q72">
+        <v>25.061348412899999</v>
+      </c>
+      <c r="R72">
+        <v>58.442533706399999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40513</v>
       </c>
@@ -3602,8 +4477,20 @@
       <c r="N73">
         <v>115.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>95.094216038100001</v>
+      </c>
+      <c r="P73">
+        <v>4.9057839619000001</v>
+      </c>
+      <c r="Q73">
+        <v>26.745251019000001</v>
+      </c>
+      <c r="R73">
+        <v>58.686261922200003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>40544</v>
       </c>
@@ -3646,8 +4533,20 @@
       <c r="N74">
         <v>121.08</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>94.610579640799997</v>
+      </c>
+      <c r="P74">
+        <v>5.3894203591999998</v>
+      </c>
+      <c r="Q74">
+        <v>27.705542347800002</v>
+      </c>
+      <c r="R74">
+        <v>59.866958666599999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>40575</v>
       </c>
@@ -3690,8 +4589,20 @@
       <c r="N75">
         <v>127.58</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>94.688868142299995</v>
+      </c>
+      <c r="P75">
+        <v>5.3111318577000004</v>
+      </c>
+      <c r="Q75">
+        <v>27.9266575895</v>
+      </c>
+      <c r="R75">
+        <v>58.845224371999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>40603</v>
       </c>
@@ -3734,8 +4645,20 @@
       <c r="N76">
         <v>133.55000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>95.4602846959</v>
+      </c>
+      <c r="P76">
+        <v>4.5397153040999996</v>
+      </c>
+      <c r="Q76">
+        <v>27.466218194300001</v>
+      </c>
+      <c r="R76">
+        <v>58.368599840000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>40634</v>
       </c>
@@ -3778,8 +4701,20 @@
       <c r="N77">
         <v>140.69999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>94.914109754500004</v>
+      </c>
+      <c r="P77">
+        <v>5.0858902454999999</v>
+      </c>
+      <c r="Q77">
+        <v>27.7940733748</v>
+      </c>
+      <c r="R77">
+        <v>58.717638106499997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>40664</v>
       </c>
@@ -3822,8 +4757,20 @@
       <c r="N78">
         <v>133.22</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>94.807391482100002</v>
+      </c>
+      <c r="P78">
+        <v>5.1926085179000001</v>
+      </c>
+      <c r="Q78">
+        <v>27.847265457500001</v>
+      </c>
+      <c r="R78">
+        <v>58.689129299199998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>40695</v>
       </c>
@@ -3866,8 +4813,20 @@
       <c r="N79">
         <v>133.16</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>94.594606392800003</v>
+      </c>
+      <c r="P79">
+        <v>5.4053936071999997</v>
+      </c>
+      <c r="Q79">
+        <v>27.5298044918</v>
+      </c>
+      <c r="R79">
+        <v>58.507371633799998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>40725</v>
       </c>
@@ -3910,8 +4869,20 @@
       <c r="N80">
         <v>135.83000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>94.419032636599994</v>
+      </c>
+      <c r="P80">
+        <v>5.5809673634000001</v>
+      </c>
+      <c r="Q80">
+        <v>26.959664050099999</v>
+      </c>
+      <c r="R80">
+        <v>58.970022935999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>40756</v>
       </c>
@@ -3954,8 +4925,20 @@
       <c r="N81">
         <v>130.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>94.217850797400004</v>
+      </c>
+      <c r="P81">
+        <v>5.7821492026000003</v>
+      </c>
+      <c r="Q81">
+        <v>27.659239680999999</v>
+      </c>
+      <c r="R81">
+        <v>59.3235438727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>40787</v>
       </c>
@@ -3998,8 +4981,20 @@
       <c r="N82">
         <v>130.05000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>94.375120938799995</v>
+      </c>
+      <c r="P82">
+        <v>5.6248790611999997</v>
+      </c>
+      <c r="Q82">
+        <v>26.940412547600001</v>
+      </c>
+      <c r="R82">
+        <v>58.782803573400003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>40817</v>
       </c>
@@ -4042,8 +5037,20 @@
       <c r="N83">
         <v>126.45</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>95.005770085899997</v>
+      </c>
+      <c r="P83">
+        <v>4.9942299140999999</v>
+      </c>
+      <c r="Q83">
+        <v>27.534340990299999</v>
+      </c>
+      <c r="R83">
+        <v>58.905556408000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>40848</v>
       </c>
@@ -4086,8 +5093,20 @@
       <c r="N84">
         <v>125.66</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>95.043044507600001</v>
+      </c>
+      <c r="P84">
+        <v>4.9569554923999997</v>
+      </c>
+      <c r="Q84">
+        <v>27.684421096800001</v>
+      </c>
+      <c r="R84">
+        <v>59.087497558499997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>40878</v>
       </c>
@@ -4130,8 +5149,20 @@
       <c r="N85">
         <v>122.99</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>95.515682596100007</v>
+      </c>
+      <c r="P85">
+        <v>4.4843174039000004</v>
+      </c>
+      <c r="Q85">
+        <v>27.971462920299999</v>
+      </c>
+      <c r="R85">
+        <v>58.372805054899999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>40909</v>
       </c>
@@ -4174,8 +5205,20 @@
       <c r="N86">
         <v>125.79</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>95.103129416000002</v>
+      </c>
+      <c r="P86">
+        <v>4.8968705840000002</v>
+      </c>
+      <c r="Q86">
+        <v>27.873257066600001</v>
+      </c>
+      <c r="R86">
+        <v>59.458419209699997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>40940</v>
       </c>
@@ -4218,8 +5261,20 @@
       <c r="N87">
         <v>132.43</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>94.669910564000006</v>
+      </c>
+      <c r="P87">
+        <v>5.3300894359999997</v>
+      </c>
+      <c r="Q87">
+        <v>28.077448932300001</v>
+      </c>
+      <c r="R87">
+        <v>58.836754543399998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>40969</v>
       </c>
@@ -4262,8 +5317,20 @@
       <c r="N88">
         <v>136.04</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>95.370072687100006</v>
+      </c>
+      <c r="P88">
+        <v>4.6299273128999996</v>
+      </c>
+      <c r="Q88">
+        <v>27.548663417299998</v>
+      </c>
+      <c r="R88">
+        <v>58.314148737099998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41000</v>
       </c>
@@ -4306,8 +5373,20 @@
       <c r="N89">
         <v>132.36000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>95.171024752999998</v>
+      </c>
+      <c r="P89">
+        <v>4.8289752469999998</v>
+      </c>
+      <c r="Q89">
+        <v>27.366472594600001</v>
+      </c>
+      <c r="R89">
+        <v>58.813228115199998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41030</v>
       </c>
@@ -4350,8 +5429,20 @@
       <c r="N90">
         <v>124.73</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>95.2141675556</v>
+      </c>
+      <c r="P90">
+        <v>4.7858324444000004</v>
+      </c>
+      <c r="Q90">
+        <v>28.077255744799999</v>
+      </c>
+      <c r="R90">
+        <v>58.600901596200003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41061</v>
       </c>
@@ -4394,8 +5485,20 @@
       <c r="N91">
         <v>112.66</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>95.217222012700006</v>
+      </c>
+      <c r="P91">
+        <v>4.7827779873000003</v>
+      </c>
+      <c r="Q91">
+        <v>28.0425594049</v>
+      </c>
+      <c r="R91">
+        <v>58.540633487699999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41091</v>
       </c>
@@ -4438,8 +5541,20 @@
       <c r="N92">
         <v>119.71</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>95.018796810599994</v>
+      </c>
+      <c r="P92">
+        <v>4.9812031894000004</v>
+      </c>
+      <c r="Q92">
+        <v>27.587835242000001</v>
+      </c>
+      <c r="R92">
+        <v>60.348267188299999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41122</v>
       </c>
@@ -4482,8 +5597,20 @@
       <c r="N93">
         <v>126.76</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>94.656371304700002</v>
+      </c>
+      <c r="P93">
+        <v>5.3436286952999996</v>
+      </c>
+      <c r="Q93">
+        <v>27.488344290699999</v>
+      </c>
+      <c r="R93">
+        <v>58.361256021099997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41153</v>
       </c>
@@ -4526,8 +5653,20 @@
       <c r="N94">
         <v>127.26</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>94.999682728899998</v>
+      </c>
+      <c r="P94">
+        <v>5.0003172711000001</v>
+      </c>
+      <c r="Q94">
+        <v>27.786418513499999</v>
+      </c>
+      <c r="R94">
+        <v>57.903322317099999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41183</v>
       </c>
@@ -4570,8 +5709,20 @@
       <c r="N95">
         <v>125.86</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>94.9942809076</v>
+      </c>
+      <c r="P95">
+        <v>5.0057190923999997</v>
+      </c>
+      <c r="Q95">
+        <v>26.6427150994</v>
+      </c>
+      <c r="R95">
+        <v>60.419884391399997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41214</v>
       </c>
@@ -4614,8 +5765,20 @@
       <c r="N96">
         <v>124.03</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>94.903151153500005</v>
+      </c>
+      <c r="P96">
+        <v>5.0968488465000004</v>
+      </c>
+      <c r="Q96">
+        <v>25.9184043321</v>
+      </c>
+      <c r="R96">
+        <v>58.526679208700003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41244</v>
       </c>
@@ -4658,8 +5821,20 @@
       <c r="N97">
         <v>124.45</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>95.572751252399996</v>
+      </c>
+      <c r="P97">
+        <v>4.4272487476000002</v>
+      </c>
+      <c r="Q97">
+        <v>26.501876427300001</v>
+      </c>
+      <c r="R97">
+        <v>57.932847016700002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41275</v>
       </c>
@@ -4702,8 +5877,20 @@
       <c r="N98">
         <v>126.86</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>94.619812707999998</v>
+      </c>
+      <c r="P98">
+        <v>5.3801872919999996</v>
+      </c>
+      <c r="Q98">
+        <v>28.087629138899999</v>
+      </c>
+      <c r="R98">
+        <v>58.969624218200003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41306</v>
       </c>
@@ -4746,8 +5933,20 @@
       <c r="N99">
         <v>129.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>95.179518925099998</v>
+      </c>
+      <c r="P99">
+        <v>4.8204810749</v>
+      </c>
+      <c r="Q99">
+        <v>27.2907015698</v>
+      </c>
+      <c r="R99">
+        <v>58.3732642469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41334</v>
       </c>
@@ -4790,8 +5989,20 @@
       <c r="N100">
         <v>123.52</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>95.421294475500005</v>
+      </c>
+      <c r="P100">
+        <v>4.5787055245000001</v>
+      </c>
+      <c r="Q100">
+        <v>27.672103996099999</v>
+      </c>
+      <c r="R100">
+        <v>57.096971663300003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41365</v>
       </c>
@@ -4834,8 +6045,20 @@
       <c r="N101">
         <v>118.45</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>94.940602465599994</v>
+      </c>
+      <c r="P101">
+        <v>5.0593975344000004</v>
+      </c>
+      <c r="Q101">
+        <v>28.2781514807</v>
+      </c>
+      <c r="R101">
+        <v>59.090665097699997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41395</v>
       </c>
@@ -4878,8 +6101,20 @@
       <c r="N102">
         <v>118.09</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>95.074134635600004</v>
+      </c>
+      <c r="P102">
+        <v>4.9258653643999999</v>
+      </c>
+      <c r="Q102">
+        <v>26.828127794899999</v>
+      </c>
+      <c r="R102">
+        <v>57.844985585800003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41426</v>
       </c>
@@ -4922,8 +6157,20 @@
       <c r="N103">
         <v>117.29</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>94.952456531799996</v>
+      </c>
+      <c r="P103">
+        <v>5.0475434681999998</v>
+      </c>
+      <c r="Q103">
+        <v>25.7254709017</v>
+      </c>
+      <c r="R103">
+        <v>57.097447620099999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41456</v>
       </c>
@@ -4966,8 +6213,20 @@
       <c r="N104">
         <v>119.61</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>94.836453045699997</v>
+      </c>
+      <c r="P104">
+        <v>5.1635469543000001</v>
+      </c>
+      <c r="Q104">
+        <v>27.155113519899999</v>
+      </c>
+      <c r="R104">
+        <v>59.670773445899997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41487</v>
       </c>
@@ -5010,8 +6269,20 @@
       <c r="N105">
         <v>121.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>94.795606892799995</v>
+      </c>
+      <c r="P105">
+        <v>5.2043931071999996</v>
+      </c>
+      <c r="Q105">
+        <v>26.790283751600001</v>
+      </c>
+      <c r="R105">
+        <v>58.274104424100003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41518</v>
       </c>
@@ -5054,8 +6325,20 @@
       <c r="N106">
         <v>121.96</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>94.677629198600002</v>
+      </c>
+      <c r="P106">
+        <v>5.3223708014</v>
+      </c>
+      <c r="Q106">
+        <v>25.8944099106</v>
+      </c>
+      <c r="R106">
+        <v>56.64634169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41548</v>
       </c>
@@ -5098,8 +6381,20 @@
       <c r="N107">
         <v>120.71</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>94.971608767299998</v>
+      </c>
+      <c r="P107">
+        <v>5.0283912326999998</v>
+      </c>
+      <c r="Q107">
+        <v>26.957930377099999</v>
+      </c>
+      <c r="R107">
+        <v>58.927921207899999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41579</v>
       </c>
@@ -5142,8 +6437,20 @@
       <c r="N108">
         <v>119.49</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>95.486995933000003</v>
+      </c>
+      <c r="P108">
+        <v>4.5130040669999998</v>
+      </c>
+      <c r="Q108">
+        <v>26.041163605000001</v>
+      </c>
+      <c r="R108">
+        <v>57.250831033799997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41609</v>
       </c>
@@ -5186,8 +6493,20 @@
       <c r="N109">
         <v>122.16</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>95.727218980700002</v>
+      </c>
+      <c r="P109">
+        <v>4.2727810193</v>
+      </c>
+      <c r="Q109">
+        <v>27.329594677100001</v>
+      </c>
+      <c r="R109">
+        <v>57.704312693399999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41640</v>
       </c>
@@ -5230,8 +6549,20 @@
       <c r="N110">
         <v>119.93</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>94.921039496099993</v>
+      </c>
+      <c r="P110">
+        <v>5.0789605039000003</v>
+      </c>
+      <c r="Q110">
+        <v>27.119585923500001</v>
+      </c>
+      <c r="R110">
+        <v>58.206360758700001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41671</v>
       </c>
@@ -5274,8 +6605,20 @@
       <c r="N111">
         <v>122.02</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>95.319084067800006</v>
+      </c>
+      <c r="P111">
+        <v>4.6809159321999996</v>
+      </c>
+      <c r="Q111">
+        <v>26.348335012</v>
+      </c>
+      <c r="R111">
+        <v>56.625064834100002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41699</v>
       </c>
@@ -5318,8 +6661,20 @@
       <c r="N112">
         <v>120.46</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>95.200410033300003</v>
+      </c>
+      <c r="P112">
+        <v>4.7995899667000002</v>
+      </c>
+      <c r="Q112">
+        <v>26.491768925199999</v>
+      </c>
+      <c r="R112">
+        <v>57.293801170899997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41730</v>
       </c>
@@ -5362,8 +6717,20 @@
       <c r="N113">
         <v>120.46</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>95.136564750700003</v>
+      </c>
+      <c r="P113">
+        <v>4.8634352493000002</v>
+      </c>
+      <c r="Q113">
+        <v>27.029313892499999</v>
+      </c>
+      <c r="R113">
+        <v>57.681754687599998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41760</v>
       </c>
@@ -5406,8 +6773,20 @@
       <c r="N114">
         <v>121.43</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>95.037834526799998</v>
+      </c>
+      <c r="P114">
+        <v>4.9621654731999998</v>
+      </c>
+      <c r="Q114">
+        <v>26.086059989300001</v>
+      </c>
+      <c r="R114">
+        <v>56.532808056</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41791</v>
       </c>
@@ -5450,8 +6829,20 @@
       <c r="N115">
         <v>122.29</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>95.178060574900002</v>
+      </c>
+      <c r="P115">
+        <v>4.8219394251000001</v>
+      </c>
+      <c r="Q115">
+        <v>25.629613224100002</v>
+      </c>
+      <c r="R115">
+        <v>56.743393424099999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41821</v>
       </c>
@@ -5494,8 +6885,20 @@
       <c r="N116">
         <v>118</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>94.512105036199998</v>
+      </c>
+      <c r="P116">
+        <v>5.4878949637999996</v>
+      </c>
+      <c r="Q116">
+        <v>26.4691487634</v>
+      </c>
+      <c r="R116">
+        <v>58.2154002105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41852</v>
       </c>
@@ -5538,8 +6941,20 @@
       <c r="N117">
         <v>113.95</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>94.8068544976</v>
+      </c>
+      <c r="P117">
+        <v>5.1931455024000002</v>
+      </c>
+      <c r="Q117">
+        <v>25.295524257499999</v>
+      </c>
+      <c r="R117">
+        <v>56.818095164600003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41883</v>
       </c>
@@ -5582,8 +6997,20 @@
       <c r="N118">
         <v>109.68</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>94.888492279000005</v>
+      </c>
+      <c r="P118">
+        <v>5.1115077209999997</v>
+      </c>
+      <c r="Q118">
+        <v>26.2247393723</v>
+      </c>
+      <c r="R118">
+        <v>57.179725390999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>41913</v>
       </c>
@@ -5626,8 +7053,20 @@
       <c r="N119">
         <v>102.19</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>95.225205975700007</v>
+      </c>
+      <c r="P119">
+        <v>4.7747940243000002</v>
+      </c>
+      <c r="Q119">
+        <v>27.030698418</v>
+      </c>
+      <c r="R119">
+        <v>57.522057822400001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>41944</v>
       </c>
@@ -5670,8 +7109,20 @@
       <c r="N120">
         <v>95.84</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>95.462073399499999</v>
+      </c>
+      <c r="P120">
+        <v>4.5379266004999996</v>
+      </c>
+      <c r="Q120">
+        <v>25.568940682299999</v>
+      </c>
+      <c r="R120">
+        <v>56.374264159900001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41974</v>
       </c>
@@ -5714,8 +7165,20 @@
       <c r="N121">
         <v>83.35</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>96.235092152299998</v>
+      </c>
+      <c r="P121">
+        <v>3.7649078477</v>
+      </c>
+      <c r="Q121">
+        <v>27.107637503100001</v>
+      </c>
+      <c r="R121">
+        <v>57.880295994199997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42005</v>
       </c>
@@ -5758,8 +7221,20 @@
       <c r="N122">
         <v>71.61</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>95.487566047900003</v>
+      </c>
+      <c r="P122">
+        <v>4.5124339521000003</v>
+      </c>
+      <c r="Q122">
+        <v>25.902565571099998</v>
+      </c>
+      <c r="R122">
+        <v>56.875857370399999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42036</v>
       </c>
@@ -5802,8 +7277,20 @@
       <c r="N123">
         <v>77.760000000000005</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>95.668737151599998</v>
+      </c>
+      <c r="P123">
+        <v>4.3312628483999998</v>
+      </c>
+      <c r="Q123">
+        <v>26.671026314399999</v>
+      </c>
+      <c r="R123">
+        <v>57.014409301699999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42064</v>
       </c>
@@ -5846,8 +7333,20 @@
       <c r="N124">
         <v>75.489999999999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>96.137834431000002</v>
+      </c>
+      <c r="P124">
+        <v>3.8621655690000001</v>
+      </c>
+      <c r="Q124">
+        <v>26.736777827699999</v>
+      </c>
+      <c r="R124">
+        <v>57.570302269999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42095</v>
       </c>
@@ -5890,8 +7389,20 @@
       <c r="N125">
         <v>76.87</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>95.689330021700002</v>
+      </c>
+      <c r="P125">
+        <v>4.3106699783</v>
+      </c>
+      <c r="Q125">
+        <v>26.3420842558</v>
+      </c>
+      <c r="R125">
+        <v>57.129839687100002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42125</v>
       </c>
@@ -5934,8 +7445,20 @@
       <c r="N126">
         <v>81.06</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>95.554166343999995</v>
+      </c>
+      <c r="P126">
+        <v>4.4458336559999996</v>
+      </c>
+      <c r="Q126">
+        <v>26.695136309799999</v>
+      </c>
+      <c r="R126">
+        <v>56.871919041200002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42156</v>
       </c>
@@ -5978,8 +7501,20 @@
       <c r="N127">
         <v>78.91</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>95.593974422700001</v>
+      </c>
+      <c r="P127">
+        <v>4.4060255773000003</v>
+      </c>
+      <c r="Q127">
+        <v>25.719679664699999</v>
+      </c>
+      <c r="R127">
+        <v>57.561482873599999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42186</v>
       </c>
@@ -6022,8 +7557,20 @@
       <c r="N128">
         <v>74.02</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>95.2838784562</v>
+      </c>
+      <c r="P128">
+        <v>4.7161215437999999</v>
+      </c>
+      <c r="Q128">
+        <v>26.586626131100001</v>
+      </c>
+      <c r="R128">
+        <v>57.828133367699998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42217</v>
       </c>
@@ -6066,8 +7613,20 @@
       <c r="N129">
         <v>66.38</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>95.333803376399999</v>
+      </c>
+      <c r="P129">
+        <v>4.6661966236000003</v>
+      </c>
+      <c r="Q129">
+        <v>26.395405827200001</v>
+      </c>
+      <c r="R129">
+        <v>56.665722020099999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42248</v>
       </c>
@@ -6110,8 +7669,20 @@
       <c r="N130">
         <v>66.13</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>95.506519615000002</v>
+      </c>
+      <c r="P130">
+        <v>4.4934803849999998</v>
+      </c>
+      <c r="Q130">
+        <v>26.019921410599999</v>
+      </c>
+      <c r="R130">
+        <v>57.077032510199999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42278</v>
       </c>
@@ -6154,8 +7725,20 @@
       <c r="N131">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>95.456445778299994</v>
+      </c>
+      <c r="P131">
+        <v>4.5435542217</v>
+      </c>
+      <c r="Q131">
+        <v>26.641052029499999</v>
+      </c>
+      <c r="R131">
+        <v>57.466219092099998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42309</v>
       </c>
@@ -6198,8 +7781,20 @@
       <c r="N132">
         <v>62.52</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>96.043983779800001</v>
+      </c>
+      <c r="P132">
+        <v>3.9560162202</v>
+      </c>
+      <c r="Q132">
+        <v>26.115983986</v>
+      </c>
+      <c r="R132">
+        <v>56.695698401599998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42339</v>
       </c>
@@ -6242,8 +7837,20 @@
       <c r="N133">
         <v>57.27</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>96.044869706599997</v>
+      </c>
+      <c r="P133">
+        <v>3.9551302933999999</v>
+      </c>
+      <c r="Q133">
+        <v>26.6196871199</v>
+      </c>
+      <c r="R133">
+        <v>57.257993194800001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42370</v>
       </c>
@@ -6286,8 +7893,20 @@
       <c r="N134">
         <v>51.79</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>95.744390943300004</v>
+      </c>
+      <c r="P134">
+        <v>4.2556090567</v>
+      </c>
+      <c r="Q134">
+        <v>26.564834155500002</v>
+      </c>
+      <c r="R134">
+        <v>57.250077099599999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42401</v>
       </c>
@@ -6330,8 +7949,20 @@
       <c r="N135">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>95.859651706099996</v>
+      </c>
+      <c r="P135">
+        <v>4.1403482938999998</v>
+      </c>
+      <c r="Q135">
+        <v>26.297032786900001</v>
+      </c>
+      <c r="R135">
+        <v>56.497189153199997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42430</v>
       </c>
@@ -6374,8 +8005,20 @@
       <c r="N136">
         <v>58.05</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>96.254399736899998</v>
+      </c>
+      <c r="P136">
+        <v>3.7456002631</v>
+      </c>
+      <c r="Q136">
+        <v>25.5839236365</v>
+      </c>
+      <c r="R136">
+        <v>56.405195603499998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42461</v>
       </c>
@@ -6418,8 +8061,20 @@
       <c r="N137">
         <v>61.01</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>96.198625806899997</v>
+      </c>
+      <c r="P137">
+        <v>3.8013741931</v>
+      </c>
+      <c r="Q137">
+        <v>26.373663368500001</v>
+      </c>
+      <c r="R137">
+        <v>56.517136523600001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42491</v>
       </c>
@@ -6462,8 +8117,20 @@
       <c r="N138">
         <v>64.959999999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>95.986180556999997</v>
+      </c>
+      <c r="P138">
+        <v>4.013819443</v>
+      </c>
+      <c r="Q138">
+        <v>26.436491654699999</v>
+      </c>
+      <c r="R138">
+        <v>56.698902348799997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42522</v>
       </c>
@@ -6506,8 +8173,20 @@
       <c r="N139">
         <v>67.260000000000005</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>96.082417597700001</v>
+      </c>
+      <c r="P139">
+        <v>3.9175824022999999</v>
+      </c>
+      <c r="Q139">
+        <v>25.824138684899999</v>
+      </c>
+      <c r="R139">
+        <v>56.642840786400001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42552</v>
       </c>
@@ -6550,8 +8229,20 @@
       <c r="N140">
         <v>65.16</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>96.002591421299996</v>
+      </c>
+      <c r="P140">
+        <v>3.9974085787</v>
+      </c>
+      <c r="Q140">
+        <v>26.266628645600001</v>
+      </c>
+      <c r="R140">
+        <v>56.894655861899999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42583</v>
       </c>
@@ -6594,8 +8285,20 @@
       <c r="N141">
         <v>65.67</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>96.023818649199995</v>
+      </c>
+      <c r="P141">
+        <v>3.9761813508000001</v>
+      </c>
+      <c r="Q141">
+        <v>26.4448522271</v>
+      </c>
+      <c r="R141">
+        <v>57.034473201300003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42614</v>
       </c>
@@ -6638,8 +8341,20 @@
       <c r="N142">
         <v>65.930000000000007</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>95.878081176600006</v>
+      </c>
+      <c r="P142">
+        <v>4.1219188233999997</v>
+      </c>
+      <c r="Q142">
+        <v>25.336792920600001</v>
+      </c>
+      <c r="R142">
+        <v>56.013000839599997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42644</v>
       </c>
@@ -6682,8 +8397,20 @@
       <c r="N143">
         <v>69.37</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>96.333681544499996</v>
+      </c>
+      <c r="P143">
+        <v>3.6663184554999999</v>
+      </c>
+      <c r="Q143">
+        <v>27.1009462741</v>
+      </c>
+      <c r="R143">
+        <v>57.108289480000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42675</v>
       </c>
@@ -6726,8 +8453,20 @@
       <c r="N144">
         <v>67.930000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>96.504831479000003</v>
+      </c>
+      <c r="P144">
+        <v>3.4951685210000001</v>
+      </c>
+      <c r="Q144">
+        <v>26.157413895400001</v>
+      </c>
+      <c r="R144">
+        <v>56.443038128399998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42705</v>
       </c>
@@ -6770,8 +8509,20 @@
       <c r="N145">
         <v>73.88</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>96.622966591299999</v>
+      </c>
+      <c r="P145">
+        <v>3.3770334087</v>
+      </c>
+      <c r="Q145">
+        <v>26.466923534900001</v>
+      </c>
+      <c r="R145">
+        <v>56.481117428499999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42736</v>
       </c>
@@ -6814,8 +8565,20 @@
       <c r="N146">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>96.398389693599995</v>
+      </c>
+      <c r="P146">
+        <v>3.6016103064</v>
+      </c>
+      <c r="Q146">
+        <v>26.421648946000001</v>
+      </c>
+      <c r="R146">
+        <v>56.8889835198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42767</v>
       </c>
@@ -6858,8 +8621,20 @@
       <c r="N147">
         <v>75</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>96.656703441600001</v>
+      </c>
+      <c r="P147">
+        <v>3.3432965584000001</v>
+      </c>
+      <c r="Q147">
+        <v>26.6866027053</v>
+      </c>
+      <c r="R147">
+        <v>56.500068332799998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42795</v>
       </c>
@@ -6902,8 +8677,20 @@
       <c r="N148">
         <v>71.83</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>96.807131019899998</v>
+      </c>
+      <c r="P148">
+        <v>3.1928689801000001</v>
+      </c>
+      <c r="Q148">
+        <v>27.323500537600001</v>
+      </c>
+      <c r="R148">
+        <v>56.693867437900003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42826</v>
       </c>
@@ -6946,8 +8733,20 @@
       <c r="N149">
         <v>72.209999999999994</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>96.534807063599999</v>
+      </c>
+      <c r="P149">
+        <v>3.4651929363999998</v>
+      </c>
+      <c r="Q149">
+        <v>26.164515891899999</v>
+      </c>
+      <c r="R149">
+        <v>55.8612437341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42856</v>
       </c>
@@ -6990,8 +8789,20 @@
       <c r="N150">
         <v>70.510000000000005</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>96.450439799099996</v>
+      </c>
+      <c r="P150">
+        <v>3.5495602008999998</v>
+      </c>
+      <c r="Q150">
+        <v>26.710797328799998</v>
+      </c>
+      <c r="R150">
+        <v>56.268048434500002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42887</v>
       </c>
@@ -7034,8 +8845,20 @@
       <c r="N151">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>96.713161301699998</v>
+      </c>
+      <c r="P151">
+        <v>3.2868386983</v>
+      </c>
+      <c r="Q151">
+        <v>26.093355024699999</v>
+      </c>
+      <c r="R151">
+        <v>55.868635411900001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42917</v>
       </c>
@@ -7078,8 +8901,20 @@
       <c r="N152">
         <v>69.510000000000005</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>96.582021750600006</v>
+      </c>
+      <c r="P152">
+        <v>3.4179782493999999</v>
+      </c>
+      <c r="Q152">
+        <v>25.792439680299999</v>
+      </c>
+      <c r="R152">
+        <v>57.038030845800002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42948</v>
       </c>
@@ -7122,8 +8957,20 @@
       <c r="N153">
         <v>72.08</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>96.484154449200005</v>
+      </c>
+      <c r="P153">
+        <v>3.5158455507999999</v>
+      </c>
+      <c r="Q153">
+        <v>25.595659198</v>
+      </c>
+      <c r="R153">
+        <v>57.174904869000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42979</v>
       </c>
@@ -7166,8 +9013,20 @@
       <c r="N154">
         <v>75.27</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>96.410793552300007</v>
+      </c>
+      <c r="P154">
+        <v>3.5892064477000001</v>
+      </c>
+      <c r="Q154">
+        <v>25.9043658493</v>
+      </c>
+      <c r="R154">
+        <v>56.225823753699999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43009</v>
       </c>
@@ -7210,8 +9069,20 @@
       <c r="N155">
         <v>76.94</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>96.491182314599996</v>
+      </c>
+      <c r="P155">
+        <v>3.5088176853999999</v>
+      </c>
+      <c r="Q155">
+        <v>26.871140497900001</v>
+      </c>
+      <c r="R155">
+        <v>57.069954089299998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43040</v>
       </c>
@@ -7254,8 +9125,20 @@
       <c r="N156">
         <v>80.88</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>96.594098966000004</v>
+      </c>
+      <c r="P156">
+        <v>3.4059010340000002</v>
+      </c>
+      <c r="Q156">
+        <v>25.637623503</v>
+      </c>
+      <c r="R156">
+        <v>56.300371054800003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43070</v>
       </c>
@@ -7298,8 +9181,20 @@
       <c r="N157">
         <v>81.93</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <v>96.852753358100003</v>
+      </c>
+      <c r="P157">
+        <v>3.1472466418999998</v>
+      </c>
+      <c r="Q157">
+        <v>26.272821976700001</v>
+      </c>
+      <c r="R157">
+        <v>56.2206012933</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43101</v>
       </c>
@@ -7342,8 +9237,20 @@
       <c r="N158">
         <v>87.28</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <v>96.635483299399993</v>
+      </c>
+      <c r="P158">
+        <v>3.3645167005999999</v>
+      </c>
+      <c r="Q158">
+        <v>27.5332787137</v>
+      </c>
+      <c r="R158">
+        <v>57.015422887699998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43132</v>
       </c>
@@ -7386,8 +9293,20 @@
       <c r="N159">
         <v>84.09</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <v>96.826426286</v>
+      </c>
+      <c r="P159">
+        <v>3.1735737140000002</v>
+      </c>
+      <c r="Q159">
+        <v>26.433158243400001</v>
+      </c>
+      <c r="R159">
+        <v>56.278827851400003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43160</v>
       </c>
@@ -7430,8 +9349,20 @@
       <c r="N160">
         <v>84.41</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <v>97.062788850199993</v>
+      </c>
+      <c r="P160">
+        <v>2.9372111498</v>
+      </c>
+      <c r="Q160">
+        <v>26.524978558400001</v>
+      </c>
+      <c r="R160">
+        <v>55.553065410199999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43191</v>
       </c>
@@ -7474,8 +9405,20 @@
       <c r="N161">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <v>96.6134838909</v>
+      </c>
+      <c r="P161">
+        <v>3.3865161091</v>
+      </c>
+      <c r="Q161">
+        <v>27.126279654099999</v>
+      </c>
+      <c r="R161">
+        <v>56.310835776600001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43221</v>
       </c>
@@ -7518,8 +9461,20 @@
       <c r="N162">
         <v>92.94</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <v>96.776296763000005</v>
+      </c>
+      <c r="P162">
+        <v>3.2237032370000001</v>
+      </c>
+      <c r="Q162">
+        <v>26.291731050900001</v>
+      </c>
+      <c r="R162">
+        <v>56.340367291600003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43252</v>
       </c>
@@ -7562,8 +9517,20 @@
       <c r="N163">
         <v>91.75</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <v>96.626496474800007</v>
+      </c>
+      <c r="P163">
+        <v>3.3735035251999999</v>
+      </c>
+      <c r="Q163">
+        <v>26.0864132482</v>
+      </c>
+      <c r="R163">
+        <v>55.597227592099998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43282</v>
       </c>
@@ -7606,8 +9573,20 @@
       <c r="N164">
         <v>90.08</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <v>96.527949254500001</v>
+      </c>
+      <c r="P164">
+        <v>3.4720507454999998</v>
+      </c>
+      <c r="Q164">
+        <v>27.187249196500002</v>
+      </c>
+      <c r="R164">
+        <v>56.810833968600001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43313</v>
       </c>
@@ -7650,8 +9629,20 @@
       <c r="N165">
         <v>88.91</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <v>96.542740075500006</v>
+      </c>
+      <c r="P165">
+        <v>3.4572599245000002</v>
+      </c>
+      <c r="Q165">
+        <v>26.477920059300001</v>
+      </c>
+      <c r="R165">
+        <v>56.485019833099997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43344</v>
       </c>
@@ -7694,8 +9685,20 @@
       <c r="N166">
         <v>92.92</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <v>96.418772742300007</v>
+      </c>
+      <c r="P166">
+        <v>3.5812272577000002</v>
+      </c>
+      <c r="Q166">
+        <v>27.075649356100001</v>
+      </c>
+      <c r="R166">
+        <v>55.731554905300001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43374</v>
       </c>
@@ -7738,8 +9741,20 @@
       <c r="N167">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <v>96.734062481799995</v>
+      </c>
+      <c r="P167">
+        <v>3.2659375181999999</v>
+      </c>
+      <c r="Q167">
+        <v>26.690748276299999</v>
+      </c>
+      <c r="R167">
+        <v>55.316636479300001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43405</v>
       </c>
@@ -7782,8 +9797,20 @@
       <c r="N168">
         <v>83.34</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <v>96.751519474299997</v>
+      </c>
+      <c r="P168">
+        <v>3.2484805256999998</v>
+      </c>
+      <c r="Q168">
+        <v>25.702668371800002</v>
+      </c>
+      <c r="R168">
+        <v>56.4878561664</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43435</v>
       </c>
@@ -7826,8 +9853,20 @@
       <c r="N169">
         <v>76.819999999999993</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <v>96.641634482000001</v>
+      </c>
+      <c r="P169">
+        <v>3.3583655179999998</v>
+      </c>
+      <c r="Q169">
+        <v>26.747071573900001</v>
+      </c>
+      <c r="R169">
+        <v>55.918295208000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43466</v>
       </c>
@@ -7870,8 +9909,20 @@
       <c r="N170">
         <v>77.81</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>96.436697675800005</v>
+      </c>
+      <c r="P170">
+        <v>3.5633023241999999</v>
+      </c>
+      <c r="Q170">
+        <v>26.700613208299998</v>
+      </c>
+      <c r="R170">
+        <v>56.130955280400002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43497</v>
       </c>
@@ -7914,8 +9965,20 @@
       <c r="N171">
         <v>80.88</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <v>96.706435829399993</v>
+      </c>
+      <c r="P171">
+        <v>3.2935641705999998</v>
+      </c>
+      <c r="Q171">
+        <v>26.745609595299999</v>
+      </c>
+      <c r="R171">
+        <v>57.130300457300002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43525</v>
       </c>
@@ -7958,8 +10021,20 @@
       <c r="N172">
         <v>82.25</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <v>96.776086933200006</v>
+      </c>
+      <c r="P172">
+        <v>3.2239130667999998</v>
+      </c>
+      <c r="Q172">
+        <v>27.1643343569</v>
+      </c>
+      <c r="R172">
+        <v>55.598525450700002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43556</v>
       </c>
@@ -8002,8 +10077,20 @@
       <c r="N173">
         <v>85.16</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <v>96.501511367000006</v>
+      </c>
+      <c r="P173">
+        <v>3.498488633</v>
+      </c>
+      <c r="Q173">
+        <v>27.9819943806</v>
+      </c>
+      <c r="R173">
+        <v>55.590985289000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43586</v>
       </c>
@@ -8046,8 +10133,20 @@
       <c r="N174">
         <v>83.81</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174">
+        <v>96.498043426600006</v>
+      </c>
+      <c r="P174">
+        <v>3.5019565734000002</v>
+      </c>
+      <c r="Q174">
+        <v>25.975427102699999</v>
+      </c>
+      <c r="R174">
+        <v>55.530011428900004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43617</v>
       </c>
@@ -8090,8 +10189,20 @@
       <c r="N175">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175">
+        <v>96.4348495232</v>
+      </c>
+      <c r="P175">
+        <v>3.5651504768</v>
+      </c>
+      <c r="Q175">
+        <v>26.299322047499999</v>
+      </c>
+      <c r="R175">
+        <v>55.4755480213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43647</v>
       </c>
@@ -8134,8 +10245,20 @@
       <c r="N176">
         <v>78.81</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <v>96.263198711900003</v>
+      </c>
+      <c r="P176">
+        <v>3.7368012881000001</v>
+      </c>
+      <c r="Q176">
+        <v>26.700667831699999</v>
+      </c>
+      <c r="R176">
+        <v>55.717293986199998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43678</v>
       </c>
@@ -8178,8 +10301,20 @@
       <c r="N177">
         <v>74.11</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177">
+        <v>96.293273776000007</v>
+      </c>
+      <c r="P177">
+        <v>3.7067262240000001</v>
+      </c>
+      <c r="Q177">
+        <v>26.200791762200002</v>
+      </c>
+      <c r="R177">
+        <v>55.486594070800002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43709</v>
       </c>
@@ -8222,8 +10357,20 @@
       <c r="N178">
         <v>76.87</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <v>96.219141445600002</v>
+      </c>
+      <c r="P178">
+        <v>3.7808585544</v>
+      </c>
+      <c r="Q178">
+        <v>26.4021642742</v>
+      </c>
+      <c r="R178">
+        <v>55.263258288499998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43739</v>
       </c>
@@ -8266,8 +10413,20 @@
       <c r="N179">
         <v>75.17</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <v>96.308618258899997</v>
+      </c>
+      <c r="P179">
+        <v>3.6913817410999998</v>
+      </c>
+      <c r="Q179">
+        <v>26.890770805100001</v>
+      </c>
+      <c r="R179">
+        <v>55.435742106500001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43770</v>
       </c>
@@ -8310,8 +10469,20 @@
       <c r="N180">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180">
+        <v>96.581777414300007</v>
+      </c>
+      <c r="P180">
+        <v>3.4182225857000001</v>
+      </c>
+      <c r="Q180">
+        <v>25.4475560556</v>
+      </c>
+      <c r="R180">
+        <v>54.8535414921</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43800</v>
       </c>
@@ -8354,8 +10525,20 @@
       <c r="N181">
         <v>80.56</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <v>97.094823313800006</v>
+      </c>
+      <c r="P181">
+        <v>2.9051766861999999</v>
+      </c>
+      <c r="Q181">
+        <v>26.315504394000001</v>
+      </c>
+      <c r="R181">
+        <v>54.783923979299999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43831</v>
       </c>
@@ -8398,8 +10581,20 @@
       <c r="N182">
         <v>78.77</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182">
+        <v>96.220295887700004</v>
+      </c>
+      <c r="P182">
+        <v>3.7797041123000001</v>
+      </c>
+      <c r="Q182">
+        <v>27.2027207615</v>
+      </c>
+      <c r="R182">
+        <v>55.8845700428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43862</v>
       </c>
@@ -8442,8 +10637,20 @@
       <c r="N183">
         <v>71.19</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <v>96.4698117067</v>
+      </c>
+      <c r="P183">
+        <v>3.5301882933000002</v>
+      </c>
+      <c r="Q183">
+        <v>26.0989420115</v>
+      </c>
+      <c r="R183">
+        <v>55.061772082499999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43891</v>
       </c>
@@ -8486,8 +10693,20 @@
       <c r="N184">
         <v>54.31</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184">
+        <v>97.091031055200006</v>
+      </c>
+      <c r="P184">
+        <v>2.9089689447999998</v>
+      </c>
+      <c r="Q184">
+        <v>26.201237778599999</v>
+      </c>
+      <c r="R184">
+        <v>54.994031868900002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43922</v>
       </c>
@@ -8530,8 +10749,20 @@
       <c r="N185">
         <v>46.24</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185">
+        <v>95.313559324500005</v>
+      </c>
+      <c r="P185">
+        <v>4.6864406755000001</v>
+      </c>
+      <c r="Q185">
+        <v>22.4280481403</v>
+      </c>
+      <c r="R185">
+        <v>48.864735581300003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43952</v>
       </c>
@@ -8574,8 +10805,20 @@
       <c r="N186">
         <v>51.55</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <v>95.807243994199993</v>
+      </c>
+      <c r="P186">
+        <v>4.1927560057999997</v>
+      </c>
+      <c r="Q186">
+        <v>25.3864973564</v>
+      </c>
+      <c r="R186">
+        <v>52.667282632199999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43983</v>
       </c>
@@ -8618,8 +10861,20 @@
       <c r="N187">
         <v>58.79</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <v>94.507840926699998</v>
+      </c>
+      <c r="P187">
+        <v>5.4921590732999999</v>
+      </c>
+      <c r="Q187">
+        <v>24.442564655000002</v>
+      </c>
+      <c r="R187">
+        <v>53.723300361500002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44013</v>
       </c>
@@ -8662,8 +10917,20 @@
       <c r="N188">
         <v>61.68</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <v>94.649130935399995</v>
+      </c>
+      <c r="P188">
+        <v>5.3508690646000003</v>
+      </c>
+      <c r="Q188">
+        <v>26.896853271299999</v>
+      </c>
+      <c r="R188">
+        <v>55.834999650599997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44044</v>
       </c>
@@ -8706,8 +10973,20 @@
       <c r="N189">
         <v>64.56</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189">
+        <v>94.742492632999998</v>
+      </c>
+      <c r="P189">
+        <v>5.2575073669999997</v>
+      </c>
+      <c r="Q189">
+        <v>26.6010035955</v>
+      </c>
+      <c r="R189">
+        <v>55.995725178999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44075</v>
       </c>
@@ -8750,8 +11029,20 @@
       <c r="N190">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <v>94.871530220599993</v>
+      </c>
+      <c r="P190">
+        <v>5.1284697793999996</v>
+      </c>
+      <c r="Q190">
+        <v>26.845253088500002</v>
+      </c>
+      <c r="R190">
+        <v>55.169678994599998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44105</v>
       </c>
@@ -8794,8 +11085,20 @@
       <c r="N191">
         <v>63.96</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <v>95.291522780700006</v>
+      </c>
+      <c r="P191">
+        <v>4.7084772192999997</v>
+      </c>
+      <c r="Q191">
+        <v>26.9964437758</v>
+      </c>
+      <c r="R191">
+        <v>55.868544398099999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44136</v>
       </c>
@@ -8838,8 +11141,20 @@
       <c r="N192">
         <v>67.67</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192">
+        <v>95.646307290500005</v>
+      </c>
+      <c r="P192">
+        <v>4.3536927094999998</v>
+      </c>
+      <c r="Q192">
+        <v>27.0698904785</v>
+      </c>
+      <c r="R192">
+        <v>55.780223576099999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44166</v>
       </c>
@@ -8882,8 +11197,20 @@
       <c r="N193">
         <v>74.849999999999994</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193">
+        <v>96.209625965399994</v>
+      </c>
+      <c r="P193">
+        <v>3.7903740346000001</v>
+      </c>
+      <c r="Q193">
+        <v>26.679218686900001</v>
+      </c>
+      <c r="R193">
+        <v>55.977477936699998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44197</v>
       </c>
@@ -8926,8 +11253,20 @@
       <c r="N194">
         <v>80.44</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194">
+        <v>95.297322589700002</v>
+      </c>
+      <c r="P194">
+        <v>4.7026774102999997</v>
+      </c>
+      <c r="Q194">
+        <v>27.628418713599999</v>
+      </c>
+      <c r="R194">
+        <v>55.8659160116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44228</v>
       </c>
@@ -8970,8 +11309,20 @@
       <c r="N195">
         <v>88.39</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <v>95.602606152299998</v>
+      </c>
+      <c r="P195">
+        <v>4.3973938477000001</v>
+      </c>
+      <c r="Q195">
+        <v>28.285686609999999</v>
+      </c>
+      <c r="R195">
+        <v>55.133328751500002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44256</v>
       </c>
@@ -9014,8 +11365,20 @@
       <c r="N196">
         <v>88.95</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <v>96.129708515900006</v>
+      </c>
+      <c r="P196">
+        <v>3.8702914841</v>
+      </c>
+      <c r="Q196">
+        <v>27.923505445</v>
+      </c>
+      <c r="R196">
+        <v>57.239470412499998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44287</v>
       </c>
@@ -9058,8 +11421,20 @@
       <c r="N197">
         <v>90.06</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <v>95.347318933500006</v>
+      </c>
+      <c r="P197">
+        <v>4.6526810664999996</v>
+      </c>
+      <c r="Q197">
+        <v>27.3232646403</v>
+      </c>
+      <c r="R197">
+        <v>55.344554153099999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44317</v>
       </c>
@@ -9102,8 +11477,20 @@
       <c r="N198">
         <v>96.11</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <v>96.006054051000007</v>
+      </c>
+      <c r="P198">
+        <v>3.993945949</v>
+      </c>
+      <c r="Q198">
+        <v>28.250730247</v>
+      </c>
+      <c r="R198">
+        <v>55.508400108899998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44348</v>
       </c>
@@ -9146,8 +11533,20 @@
       <c r="N199">
         <v>100.74</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199">
+        <v>95.976228120599998</v>
+      </c>
+      <c r="P199">
+        <v>4.0237718793999999</v>
+      </c>
+      <c r="Q199">
+        <v>26.773506424600001</v>
+      </c>
+      <c r="R199">
+        <v>55.686470959200001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44378</v>
       </c>
@@ -9190,8 +11589,20 @@
       <c r="N200">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200">
+        <v>95.617753470699995</v>
+      </c>
+      <c r="P200">
+        <v>4.3822465292999997</v>
+      </c>
+      <c r="Q200">
+        <v>27.684613817199999</v>
+      </c>
+      <c r="R200">
+        <v>55.868811811100002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44409</v>
       </c>
@@ -9234,8 +11645,20 @@
       <c r="N201">
         <v>102.23</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201">
+        <v>95.6736809959</v>
+      </c>
+      <c r="P201">
+        <v>4.3263190041000001</v>
+      </c>
+      <c r="Q201">
+        <v>28.511996511</v>
+      </c>
+      <c r="R201">
+        <v>56.939618602800003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44440</v>
       </c>
@@ -9278,8 +11701,20 @@
       <c r="N202">
         <v>109.04</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <v>95.815033813100001</v>
+      </c>
+      <c r="P202">
+        <v>4.1849661868999997</v>
+      </c>
+      <c r="Q202">
+        <v>27.537482990400001</v>
+      </c>
+      <c r="R202">
+        <v>56.312757706799999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44470</v>
       </c>
@@ -9322,8 +11757,20 @@
       <c r="N203">
         <v>121.33</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <v>96.050214246500005</v>
+      </c>
+      <c r="P203">
+        <v>3.9497857535000001</v>
+      </c>
+      <c r="Q203">
+        <v>27.1285542203</v>
+      </c>
+      <c r="R203">
+        <v>54.9142295129</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44501</v>
       </c>
@@ -9366,8 +11813,20 @@
       <c r="N204">
         <v>115.58</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <v>96.335102204600005</v>
+      </c>
+      <c r="P204">
+        <v>3.6648977953999999</v>
+      </c>
+      <c r="Q204">
+        <v>28.073223580099999</v>
+      </c>
+      <c r="R204">
+        <v>55.612799425299997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44531</v>
       </c>
@@ -9410,8 +11869,20 @@
       <c r="N205">
         <v>114.11</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <v>96.485529192800001</v>
+      </c>
+      <c r="P205">
+        <v>3.5144708071999999</v>
+      </c>
+      <c r="Q205">
+        <v>29.0994582736</v>
+      </c>
+      <c r="R205">
+        <v>56.5369371727</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44562</v>
       </c>
@@ -9454,8 +11925,20 @@
       <c r="N206">
         <v>121.81</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <v>96.293058746</v>
+      </c>
+      <c r="P206">
+        <v>3.7069412540000002</v>
+      </c>
+      <c r="Q206">
+        <v>26.627337192599999</v>
+      </c>
+      <c r="R206">
+        <v>54.413193929899997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44593</v>
       </c>
@@ -9498,8 +11981,20 @@
       <c r="N207">
         <v>131.44</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <v>96.258782462100001</v>
+      </c>
+      <c r="P207">
+        <v>3.7412175378999999</v>
+      </c>
+      <c r="Q207">
+        <v>28.8170432818</v>
+      </c>
+      <c r="R207">
+        <v>55.208453613899998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44621</v>
       </c>
@@ -9542,8 +12037,20 @@
       <c r="N208">
         <v>157.11000000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <v>97.029943083800006</v>
+      </c>
+      <c r="P208">
+        <v>2.9700569161999999</v>
+      </c>
+      <c r="Q208">
+        <v>27.5826623506</v>
+      </c>
+      <c r="R208">
+        <v>55.143621077600002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44652</v>
       </c>
@@ -9586,8 +12093,20 @@
       <c r="N209">
         <v>148.38999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <v>96.965854835800002</v>
+      </c>
+      <c r="P209">
+        <v>3.0341451641999999</v>
+      </c>
+      <c r="Q209">
+        <v>28.247299487300001</v>
+      </c>
+      <c r="R209">
+        <v>55.393274634699999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44682</v>
       </c>
@@ -9630,8 +12149,20 @@
       <c r="N210">
         <v>153.22999999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <v>96.729548557599998</v>
+      </c>
+      <c r="P210">
+        <v>3.2704514424000002</v>
+      </c>
+      <c r="Q210">
+        <v>28.223023663999999</v>
+      </c>
+      <c r="R210">
+        <v>55.6388733215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44713</v>
       </c>
@@ -9674,8 +12205,20 @@
       <c r="N211">
         <v>157.97999999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <v>96.651290056400001</v>
+      </c>
+      <c r="P211">
+        <v>3.3487099435999998</v>
+      </c>
+      <c r="Q211">
+        <v>27.897507709199999</v>
+      </c>
+      <c r="R211">
+        <v>55.503459149800001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44743</v>
       </c>
@@ -9718,8 +12261,20 @@
       <c r="N212">
         <v>153.07</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <v>96.565995756700005</v>
+      </c>
+      <c r="P212">
+        <v>3.4340042433</v>
+      </c>
+      <c r="Q212">
+        <v>27.336102497199999</v>
+      </c>
+      <c r="R212">
+        <v>55.2133545529</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44774</v>
       </c>
@@ -9762,8 +12317,20 @@
       <c r="N213">
         <v>153.93</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <v>96.466561018500002</v>
+      </c>
+      <c r="P213">
+        <v>3.5334389814999998</v>
+      </c>
+      <c r="Q213">
+        <v>27.807848860299998</v>
+      </c>
+      <c r="R213">
+        <v>55.559928119299997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44805</v>
       </c>
@@ -9806,8 +12373,20 @@
       <c r="N214">
         <v>143.27000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <v>96.663821960700005</v>
+      </c>
+      <c r="P214">
+        <v>3.3361780393</v>
+      </c>
+      <c r="Q214">
+        <v>27.5105217646</v>
+      </c>
+      <c r="R214">
+        <v>55.187365579000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44835</v>
       </c>
@@ -9850,8 +12429,20 @@
       <c r="N215">
         <v>134.69</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <v>96.700012289</v>
+      </c>
+      <c r="P215">
+        <v>3.299987711</v>
+      </c>
+      <c r="Q215">
+        <v>26.906210622500002</v>
+      </c>
+      <c r="R215">
+        <v>54.9066296421</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44866</v>
       </c>
@@ -9894,8 +12485,20 @@
       <c r="N216">
         <v>130.36000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <v>97.153227725999997</v>
+      </c>
+      <c r="P216">
+        <v>2.8467722740000001</v>
+      </c>
+      <c r="Q216">
+        <v>27.155140945900001</v>
+      </c>
+      <c r="R216">
+        <v>54.340445707299999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44896</v>
       </c>
@@ -9938,8 +12541,20 @@
       <c r="N217">
         <v>125.01</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <v>97.236649067000002</v>
+      </c>
+      <c r="P217">
+        <v>2.7633509329999999</v>
+      </c>
+      <c r="Q217">
+        <v>27.826324179699998</v>
+      </c>
+      <c r="R217">
+        <v>54.118125001499997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44927</v>
       </c>
@@ -9982,8 +12597,20 @@
       <c r="N218">
         <v>117.88</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <v>97.000338707400005</v>
+      </c>
+      <c r="P218">
+        <v>2.9996612925999999</v>
+      </c>
+      <c r="Q218">
+        <v>26.833383985600001</v>
+      </c>
+      <c r="R218">
+        <v>54.258647304900002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44958</v>
       </c>
@@ -10026,8 +12653,20 @@
       <c r="N219">
         <v>111.91</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <v>97.279568063900001</v>
+      </c>
+      <c r="P219">
+        <v>2.7204319360999998</v>
+      </c>
+      <c r="Q219">
+        <v>28.4797571762</v>
+      </c>
+      <c r="R219">
+        <v>54.902141344100002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44986</v>
       </c>
@@ -10070,8 +12709,20 @@
       <c r="N220">
         <v>106.24</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <v>97.607459319200004</v>
+      </c>
+      <c r="P220">
+        <v>2.3925406807999998</v>
+      </c>
+      <c r="Q220">
+        <v>27.759156220600001</v>
+      </c>
+      <c r="R220">
+        <v>54.525751056200001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45017</v>
       </c>
@@ -10114,8 +12765,20 @@
       <c r="N221">
         <v>110.65</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <v>97.177201322200006</v>
+      </c>
+      <c r="P221">
+        <v>2.8227986777999998</v>
+      </c>
+      <c r="Q221">
+        <v>26.4759540234</v>
+      </c>
+      <c r="R221">
+        <v>53.828073921200001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45047</v>
       </c>
@@ -10158,8 +12821,20 @@
       <c r="N222">
         <v>101.06</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <v>97.068874562999994</v>
+      </c>
+      <c r="P222">
+        <v>2.9311254369999999</v>
+      </c>
+      <c r="Q222">
+        <v>27.827697129200001</v>
+      </c>
+      <c r="R222">
+        <v>54.556910841499999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45078</v>
       </c>
@@ -10202,8 +12877,20 @@
       <c r="N223">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <v>97.347967079699998</v>
+      </c>
+      <c r="P223">
+        <v>2.6520329202999999</v>
+      </c>
+      <c r="Q223">
+        <v>28.1398212842</v>
+      </c>
+      <c r="R223">
+        <v>55.201093422100001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45108</v>
       </c>
@@ -10246,8 +12933,20 @@
       <c r="N224">
         <v>103.4</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <v>96.870130200700004</v>
+      </c>
+      <c r="P224">
+        <v>3.1298697993000002</v>
+      </c>
+      <c r="Q224">
+        <v>27.1157396975</v>
+      </c>
+      <c r="R224">
+        <v>54.946749908199997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45139</v>
       </c>
@@ -10290,8 +12989,20 @@
       <c r="N225">
         <v>108.35</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <v>97.044654014299994</v>
+      </c>
+      <c r="P225">
+        <v>2.9553459857000002</v>
+      </c>
+      <c r="Q225">
+        <v>27.778094264100002</v>
+      </c>
+      <c r="R225">
+        <v>54.724550333400003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45170</v>
       </c>
@@ -10334,8 +13045,20 @@
       <c r="N226">
         <v>114.98</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <v>97.122578908999998</v>
+      </c>
+      <c r="P226">
+        <v>2.877421091</v>
+      </c>
+      <c r="Q226">
+        <v>27.2047114396</v>
+      </c>
+      <c r="R226">
+        <v>53.701189454800001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45200</v>
       </c>
@@ -10378,8 +13101,20 @@
       <c r="N227">
         <v>113.07</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <v>97.254003853699999</v>
+      </c>
+      <c r="P227">
+        <v>2.7459961463</v>
+      </c>
+      <c r="Q227">
+        <v>27.710175808500001</v>
+      </c>
+      <c r="R227">
+        <v>54.845862354700003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45231</v>
       </c>
@@ -10422,8 +13157,20 @@
       <c r="N228">
         <v>107.31</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <v>97.287291706800005</v>
+      </c>
+      <c r="P228">
+        <v>2.7127082932</v>
+      </c>
+      <c r="Q228">
+        <v>27.560265749500001</v>
+      </c>
+      <c r="R228">
+        <v>53.785408098399998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45261</v>
       </c>
@@ -10466,8 +13213,20 @@
       <c r="N229">
         <v>102.3</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <v>97.386240214099999</v>
+      </c>
+      <c r="P229">
+        <v>2.6137597859000001</v>
+      </c>
+      <c r="Q229">
+        <v>27.450245541400001</v>
+      </c>
+      <c r="R229">
+        <v>52.937931882500003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45292</v>
       </c>
@@ -10510,8 +13269,20 @@
       <c r="N230">
         <v>103.16</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <v>97.146975980500002</v>
+      </c>
+      <c r="P230">
+        <v>2.8530240194999998</v>
+      </c>
+      <c r="Q230">
+        <v>27.2339206477</v>
+      </c>
+      <c r="R230">
+        <v>53.147338161299999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45323</v>
       </c>
@@ -10554,8 +13325,20 @@
       <c r="N231">
         <v>103.96</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <v>97.545997400600001</v>
+      </c>
+      <c r="P231">
+        <v>2.4540025993999999</v>
+      </c>
+      <c r="Q231">
+        <v>27.5847252103</v>
+      </c>
+      <c r="R231">
+        <v>53.4179842741</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45352</v>
       </c>
@@ -10598,8 +13381,20 @@
       <c r="N232">
         <v>106.11</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <v>97.717932919600003</v>
+      </c>
+      <c r="P232">
+        <v>2.2820670804000001</v>
+      </c>
+      <c r="Q232">
+        <v>27.485676768499999</v>
+      </c>
+      <c r="R232">
+        <v>53.285842860899997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45383</v>
       </c>
@@ -10642,8 +13437,20 @@
       <c r="N233">
         <v>111.57</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <v>97.389263160599995</v>
+      </c>
+      <c r="P233">
+        <v>2.6107368393999999</v>
+      </c>
+      <c r="Q233">
+        <v>27.789833188900001</v>
+      </c>
+      <c r="R233">
+        <v>54.070861972300001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45413</v>
       </c>
@@ -10686,8 +13493,20 @@
       <c r="N234">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <v>97.378224569099999</v>
+      </c>
+      <c r="P234">
+        <v>2.6217754309000001</v>
+      </c>
+      <c r="Q234">
+        <v>28.447483121699999</v>
+      </c>
+      <c r="R234">
+        <v>53.996289629800003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45444</v>
       </c>
@@ -10730,8 +13549,20 @@
       <c r="N235">
         <v>107.2</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <v>97.224975876800002</v>
+      </c>
+      <c r="P235">
+        <v>2.7750241232000001</v>
+      </c>
+      <c r="Q235">
+        <v>26.941958552300001</v>
+      </c>
+      <c r="R235">
+        <v>53.202401626700002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45474</v>
       </c>
@@ -10774,8 +13605,20 @@
       <c r="N236">
         <v>107.87</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <v>97.072599333799999</v>
+      </c>
+      <c r="P236">
+        <v>2.9274006662000001</v>
+      </c>
+      <c r="Q236">
+        <v>27.648046217000001</v>
+      </c>
+      <c r="R236">
+        <v>54.269519671700003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45505</v>
       </c>
@@ -10818,8 +13661,20 @@
       <c r="N237">
         <v>104.94</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <v>96.962628385100004</v>
+      </c>
+      <c r="P237">
+        <v>3.0373716149000001</v>
+      </c>
+      <c r="Q237">
+        <v>27.601029439200001</v>
+      </c>
+      <c r="R237">
+        <v>53.500669013699998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45536</v>
       </c>
@@ -10862,8 +13717,20 @@
       <c r="N238">
         <v>100.93</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <v>97.077486411999999</v>
+      </c>
+      <c r="P238">
+        <v>2.9225135880000002</v>
+      </c>
+      <c r="Q238">
+        <v>27.426547796200001</v>
+      </c>
+      <c r="R238">
+        <v>53.327645405600002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45566</v>
       </c>
@@ -10906,8 +13773,20 @@
       <c r="N239">
         <v>103.25</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <v>97.499818419299999</v>
+      </c>
+      <c r="P239">
+        <v>2.5001815807000001</v>
+      </c>
+      <c r="Q239">
+        <v>27.530832288199999</v>
+      </c>
+      <c r="R239">
+        <v>53.379041090500003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45597</v>
       </c>
@@ -10950,8 +13829,20 @@
       <c r="N240">
         <v>102.52</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <v>97.361167218000006</v>
+      </c>
+      <c r="P240">
+        <v>2.6388327820000002</v>
+      </c>
+      <c r="Q240">
+        <v>28.2587107682</v>
+      </c>
+      <c r="R240">
+        <v>54.054534867599997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45627</v>
       </c>
@@ -10994,8 +13885,20 @@
       <c r="N241">
         <v>103.25</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <v>97.567658503800004</v>
+      </c>
+      <c r="P241">
+        <v>2.4323414961999998</v>
+      </c>
+      <c r="Q241">
+        <v>28.2259806191</v>
+      </c>
+      <c r="R241">
+        <v>53.275622082700004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45658</v>
       </c>
@@ -11038,8 +13941,20 @@
       <c r="N242">
         <v>108.06</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <v>97.3000486169</v>
+      </c>
+      <c r="P242">
+        <v>2.6999513831000002</v>
+      </c>
+      <c r="Q242">
+        <v>27.500264795100001</v>
+      </c>
+      <c r="R242">
+        <v>53.694300731600002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45689</v>
       </c>
@@ -11082,8 +13997,20 @@
       <c r="N243">
         <v>105.69</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <v>97.4885802541</v>
+      </c>
+      <c r="P243">
+        <v>2.5114197459000001</v>
+      </c>
+      <c r="Q243">
+        <v>28.3721547315</v>
+      </c>
+      <c r="R243">
+        <v>54.181778907899997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45717</v>
       </c>
@@ -11126,8 +14053,20 @@
       <c r="N244">
         <v>102.16</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <v>97.777803678599994</v>
+      </c>
+      <c r="P244">
+        <v>2.2221963213999998</v>
+      </c>
+      <c r="Q244">
+        <v>28.945937401999998</v>
+      </c>
+      <c r="R244">
+        <v>54.025390319000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45748</v>
       </c>
@@ -11170,8 +14109,20 @@
       <c r="N245">
         <v>96.39</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <v>97.460893633200001</v>
+      </c>
+      <c r="P245">
+        <v>2.5391063668</v>
+      </c>
+      <c r="Q245">
+        <v>28.831997121099999</v>
+      </c>
+      <c r="R245">
+        <v>54.528526299699998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45778</v>
       </c>
@@ -11214,8 +14165,20 @@
       <c r="N246">
         <v>94.22</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <v>97.253686123500003</v>
+      </c>
+      <c r="P246">
+        <v>2.7463138764999999</v>
+      </c>
+      <c r="Q246">
+        <v>28.044808550199999</v>
+      </c>
+      <c r="R246">
+        <v>54.687762669800001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45809</v>
       </c>
@@ -11258,8 +14221,20 @@
       <c r="N247">
         <v>99.27</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <v>97.312875626500002</v>
+      </c>
+      <c r="P247">
+        <v>2.6871243735000001</v>
+      </c>
+      <c r="Q247">
+        <v>28.4534354637</v>
+      </c>
+      <c r="R247">
+        <v>54.0838437042</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45839</v>
       </c>
@@ -11302,8 +14277,20 @@
       <c r="N248">
         <v>98.77</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <v>97.227174555700003</v>
+      </c>
+      <c r="P248">
+        <v>2.7728254443</v>
+      </c>
+      <c r="Q248">
+        <v>29.535921868100001</v>
+      </c>
+      <c r="R248">
+        <v>55.728644314599997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45870</v>
       </c>
@@ -11346,1260 +14333,17 @@
       <c r="N249">
         <v>96.42</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486A4115-5C47-49CE-BDD4-54EABA0F11D7}">
-  <dimension ref="A1:A248"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A248"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>74.599199260000006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>73.878798399999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>76.063421610000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>79.215658289999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>79.088214960000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>78.087974639999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>76.10832619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>78.495941869999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>79.097560540000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>78.9685147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>80.250749880000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>81.090409159999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>79.264682640000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>76.806691430000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>82.035547870000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>79.666903430000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>84.410931550000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>83.279664449999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>80.640959300000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>82.410437830000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>82.162539649999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>83.526198500000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>82.727404649999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>82.525566409999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>80.898321989999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>78.349341710000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>83.830294409999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>81.968037120000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>85.634108479999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>84.987967019999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>83.28156946</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>84.276007669999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>83.266925790000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>86.593980040000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>84.785025570000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>83.550798979999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>82.477617800000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>81.216819360000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>80.733070850000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>86.804123599999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>85.475304850000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>85.477209599999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>85.630971220000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>83.082533530000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>84.120378720000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>86.631648830000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>82.90397471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>83.155772889999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>76.019281320000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>73.650563399999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>78.418479869999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>76.256850119999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>76.803582109999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>79.0898787</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>80.181038259999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>78.071588129999995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>80.063889369999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>82.344494800000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>82.196433200000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>83.291762360000007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>77.817791549999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>77.042083579999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>83.847590780000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>82.217903939999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>82.731904810000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>84.096843550000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>83.780237709999994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>82.859897309999994</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>83.531292260000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>84.516498319999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>86.268243490000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>86.361908659999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>81.059540339999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>80.115614910000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>87.173673949999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>82.957170329999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>86.038631760000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>86.875162950000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>86.13093963</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>87.289965519999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>86.72954498</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>87.547271219999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>90.786459870000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>89.206822369999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>85.357613130000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85.29676474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>90.120110920000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>86.670871259999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>90.125978050000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89.788374180000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>89.914964080000004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>89.448408839999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>87.314056930000007</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>91.364216679999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>93.410554550000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>90.418160290000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>87.662036689999994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>85.139134170000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>87.348826209999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>90.458044209999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>91.668921949999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>89.262238879999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>91.106923780000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>90.191413749999995</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>88.218546309999994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>92.824761170000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>93.048242680000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>92.094950119999993</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>88.055324069999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>86.924389059999996</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>91.5130841</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>90.606821479999994</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>93.771730520000006</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>92.240837290000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>94.151086210000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>91.269250069999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>91.305022399999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>95.618832459999993</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>94.901718700000004</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>95.498429060000007</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>90.618371109999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>89.267738899999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>94.331544030000003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>92.929381219999996</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>94.018454070000004</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>95.598732929999997</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>96.244188350000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>93.906885729999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>95.487848880000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>97.291793659999996</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>96.719774830000006</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>97.507989539999997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>91.735198400000002</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>92.725299969999995</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>94.12728663</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>95.749489069999996</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>96.000073279999995</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>97.383327910000006</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>95.394388800000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>96.882038440000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>95.737173859999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>97.662672929999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>100.8495479</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>99.785649710000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>95.147366360000007</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>93.328218930000006</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>99.882290870000006</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>94.250997049999995</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>99.160614960000004</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>99.894681919999996</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>96.514010519999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>99.228383050000005</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>95.757490050000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>99.456422669999995</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>102.7989129</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>100.8242681</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>97.405778429999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>95.31874406</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>98.983697199999995</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>98.914845880000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>102.01269019999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>101.2455547</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>100.1458282</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>101.6059137</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>97.997737069999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>102.342451</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>104.005861</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>100.0208985</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>98.524256089999994</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>95.935784810000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>99.929700229999995</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>97.675377659999995</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>101.335551</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>99.865780599999994</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>100.50898220000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>100.1350903</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>97.492751490000003</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>100.5418099</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>102.89567599999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>99.932798550000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>98.307619590000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>95.260539870000002</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>96.924136149999995</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>76.331843550000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>76.902621280000005</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>86.481755949999993</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>90.455676460000007</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>91.530853609999994</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>92.965649170000006</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>96.354414739999996</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>99.30002082</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>97.983792350000002</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>93.116500990000006</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>90.871561580000005</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>99.805282770000005</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>96.192515200000003</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>98.210886619999997</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>98.426231799999996</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>97.305042950000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>96.061985230000005</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>93.725014079999994</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>96.268350359999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>101.0921203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>99.660091910000006</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>94.778015420000003</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>93.60604051</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>101.5991274</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>98.486247759999998</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>101.6244854</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>100.2489966</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>99.705243129999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>101.69300819999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>98.849024549999996</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>100.7847331</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>105.830264</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>103.9800908</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>99.314216849999994</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>97.068151020000002</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>104.0894071</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>100.2275247</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>105.8357975</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>104.05303189999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>102.7440819</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>105.01967620000001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>102.5715673</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>105.2782546</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>107.6575306</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>104.4711107</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>101.6386176</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>101.287347</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>102.65653020000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>105.6209837</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>107.3716744</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>103.4452629</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>106.72704899999999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>105.439144</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>102.4282202</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>105.9889515</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>107.91102739999999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>103.7932184</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>101.2288155</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>100.3519429</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>105.3479373</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>103.9497561</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>107.4067778</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>104.5374533</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>105.74108080000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>104.89289789999999</v>
+      <c r="O249">
+        <v>97.067755054900005</v>
+      </c>
+      <c r="P249">
+        <v>2.9322449450999999</v>
+      </c>
+      <c r="Q249">
+        <v>29.196207450399999</v>
+      </c>
+      <c r="R249">
+        <v>54.556009598400003</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mensuales_2005.xlsx
+++ b/Data/mensuales_2005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Coronel\Documents\GitHub\Informality\Informality-InterestRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96431E9E-2661-4A6E-85D9-6925F115580F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B800C1-94FA-4403-A8A4-48462FB7DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="O258" sqref="O258"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
